--- a/explicacion diferencia de resultados Programa 1.xlsx
+++ b/explicacion diferencia de resultados Programa 1.xlsx
@@ -54,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,7 +77,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,8 +95,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -100,8 +116,9 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -110,6 +127,11 @@
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -118,6 +140,11 @@
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="G401" sqref="G401"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q1:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -607,11 +634,11 @@
       <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
-        <v>11</v>
+      <c r="H3" s="7">
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2">
@@ -624,11 +651,11 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M66" si="5">M2+H3/2+SQRT(H3)</f>
-        <v>18.194426908988866</v>
+        <v>10.877802118633468</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N66" si="6">N2+I3/2+SQRT(I3)</f>
-        <v>20.292528739883945</v>
+        <v>13.242640687119286</v>
       </c>
       <c r="Q3" s="4">
         <v>13.736068</v>
@@ -637,10 +664,10 @@
         <v>16.025981999999999</v>
       </c>
       <c r="S3" s="4">
-        <v>18.194427000000001</v>
+        <v>10.877802000000001</v>
       </c>
       <c r="T3" s="4">
-        <v>20.292528000000001</v>
+        <v>13.24264</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -656,45 +683,45 @@
         <v>11.146264369941973</v>
       </c>
       <c r="F4" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="2">
         <f t="shared" si="3"/>
-        <v>23.841619252963778</v>
+        <v>16.968118785068668</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="4"/>
-        <v>26.767638352098594</v>
+        <v>20.025980965324653</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="5"/>
-        <v>29.567410255196283</v>
+        <v>15.613870096133258</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="6"/>
-        <v>32.292528739883949</v>
+        <v>18.692130429902463</v>
       </c>
       <c r="Q4" s="4">
-        <v>23.841619000000001</v>
+        <v>16.968119000000002</v>
       </c>
       <c r="R4" s="4">
-        <v>26.767638999999999</v>
+        <v>20.025981999999999</v>
       </c>
       <c r="S4" s="4">
-        <v>29.567411</v>
+        <v>15.61387</v>
       </c>
       <c r="T4" s="4">
-        <v>32.292526000000002</v>
+        <v>18.692131</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -710,45 +737,45 @@
         <v>15.882332347441762</v>
       </c>
       <c r="F5" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>36.464724878581443</v>
+        <v>23.113870096133258</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="4"/>
-        <v>40.010279039217878</v>
+        <v>26.854408090070844</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="5"/>
-        <v>43.426309198736952</v>
+        <v>23.113870096133258</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="6"/>
-        <v>46.764664694883528</v>
+        <v>26.854408090070841</v>
       </c>
       <c r="Q5" s="4">
-        <v>36.464725000000001</v>
+        <v>23.113871</v>
       </c>
       <c r="R5" s="4">
-        <v>40.010280999999999</v>
+        <v>26.854407999999999</v>
       </c>
       <c r="S5" s="4">
-        <v>43.426310999999998</v>
+        <v>23.113869000000001</v>
       </c>
       <c r="T5" s="4">
-        <v>46.764664000000003</v>
+        <v>26.854407999999999</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -764,45 +791,45 @@
         <v>21.331822090224939</v>
       </c>
       <c r="F6" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>51.547300573537285</v>
+        <v>24.613870096133258</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>55.700694799041308</v>
+        <v>29.26862165244394</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="5"/>
-        <v>59.722140722049673</v>
+        <v>26.345920903702137</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="6"/>
-        <v>63.663644180449886</v>
+        <v>30.854408090070841</v>
       </c>
       <c r="Q6" s="4">
-        <v>51.547302000000002</v>
+        <v>24.613871</v>
       </c>
       <c r="R6" s="4">
-        <v>55.700695000000003</v>
+        <v>29.268621</v>
       </c>
       <c r="S6" s="4">
-        <v>59.722144999999998</v>
+        <v>26.345918999999999</v>
       </c>
       <c r="T6" s="4">
-        <v>63.663643</v>
+        <v>30.854407999999999</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -818,45 +845,45 @@
         <v>27.477573401289529</v>
       </c>
       <c r="F7" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H7" s="3">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I7" s="3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>69.047300573537285</v>
+        <v>29.349938073633048</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
-        <v>73.799714312634094</v>
+        <v>34.718111395227119</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="5"/>
-        <v>78.418293144756305</v>
+        <v>32.49167221476673</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="6"/>
-        <v>82.95514680257908</v>
+        <v>37.682835214817032</v>
       </c>
       <c r="Q7" s="4">
-        <v>69.047302000000002</v>
+        <v>29.349938999999999</v>
       </c>
       <c r="R7" s="4">
-        <v>73.799721000000005</v>
+        <v>34.718113000000002</v>
       </c>
       <c r="S7" s="4">
-        <v>78.418296999999995</v>
+        <v>32.491669000000002</v>
       </c>
       <c r="T7" s="4">
-        <v>82.955146999999997</v>
+        <v>37.682834999999997</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -872,45 +899,45 @@
         <v>34.306000526035717</v>
       </c>
       <c r="F8" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>88.932465380671786</v>
+        <v>36.849938073633048</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>94.276939887685757</v>
+        <v>42.880389055395497</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="5"/>
-        <v>99.486057507586324</v>
+        <v>33.99167221476673</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>104.61200105207146</v>
+        <v>40.097048777190125</v>
       </c>
       <c r="Q8" s="4">
-        <v>88.932464999999993</v>
+        <v>36.849936999999997</v>
       </c>
       <c r="R8" s="4">
-        <v>94.276947000000007</v>
+        <v>42.880389999999998</v>
       </c>
       <c r="S8" s="4">
-        <v>99.486061000000007</v>
+        <v>33.991669000000002</v>
       </c>
       <c r="T8" s="4">
-        <v>104.61199999999999</v>
+        <v>40.097050000000003</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -926,45 +953,45 @@
         <v>41.806000526035717</v>
       </c>
       <c r="F9" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>111.17702802720981</v>
+        <v>40.081988881201923</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>117.10789178253106</v>
+        <v>46.880389055395497</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="5"/>
-        <v>122.90213729068594</v>
+        <v>38.727740192266523</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="6"/>
-        <v>128.61200105207146</v>
+        <v>45.546538519973303</v>
       </c>
       <c r="Q9" s="4">
-        <v>111.177025</v>
+        <v>40.081989</v>
       </c>
       <c r="R9" s="4">
-        <v>117.107895</v>
+        <v>46.880389999999998</v>
       </c>
       <c r="S9" s="4">
-        <v>122.90213799999999</v>
+        <v>38.727736999999998</v>
       </c>
       <c r="T9" s="4">
-        <v>128.61199999999999</v>
+        <v>45.546539000000003</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -980,249 +1007,247 @@
         <v>49.968278186204095</v>
       </c>
       <c r="F10" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>135.75979055750804</v>
+        <v>46.227740192266516</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>142.27230578550004</v>
+        <v>53.708816180141689</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="5"/>
-        <v>148.64713528908433</v>
+        <v>46.227740192266523</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="6"/>
-        <v>154.93655637240823</v>
+        <v>53.708816180141682</v>
       </c>
       <c r="Q10" s="4">
-        <v>135.75979599999999</v>
+        <v>46.227741000000002</v>
       </c>
       <c r="R10" s="4">
-        <v>142.27230800000001</v>
+        <v>53.708817000000003</v>
       </c>
       <c r="S10" s="4">
-        <v>148.64712499999999</v>
+        <v>46.227736999999998</v>
       </c>
       <c r="T10" s="4">
-        <v>154.936554</v>
+        <v>53.708817000000003</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
         <f t="shared" si="2"/>
-        <v>58.784902976559493</v>
+        <v>51.468278186204095</v>
       </c>
       <c r="F11" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>162.66291479494089</v>
+        <v>47.727740192266516</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
-        <v>169.75304648390789</v>
+        <v>56.123029742514781</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="5"/>
-        <v>176.70457381338633</v>
+        <v>49.459790999835398</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="6"/>
-        <v>183.56980595311904</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>162.66291799999999</v>
-      </c>
-      <c r="R11" s="4">
-        <v>169.753052</v>
-      </c>
-      <c r="S11" s="4">
-        <v>176.70455899999999</v>
-      </c>
-      <c r="T11" s="4">
-        <v>183.56980899999999</v>
+        <v>57.708816180141682</v>
+      </c>
+      <c r="O11" s="2">
+        <f>SUM(K1:N12)</f>
+        <v>1486.024098834436</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>50.227741000000002</v>
+      </c>
+      <c r="R11" s="9">
+        <v>59.854568</v>
+      </c>
+      <c r="S11" s="9">
+        <v>48.641953000000001</v>
+      </c>
+      <c r="T11" s="9">
+        <v>56.940868000000002</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7">
         <f t="shared" si="2"/>
-        <v>68.249004591697243</v>
+        <v>53.882491748577188</v>
       </c>
       <c r="F12" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="I12" s="3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>191.87111872744026</v>
+        <v>52.46380816976631</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>199.53537646703316</v>
+        <v>61.57251948529796</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="5"/>
-        <v>207.06022841378737</v>
+        <v>55.605542310899992</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="6"/>
-        <v>214.49800918339454</v>
+        <v>64.537243304887866</v>
       </c>
       <c r="Q12" s="4">
-        <v>191.87112400000001</v>
+        <v>57.056168</v>
       </c>
       <c r="R12" s="4">
-        <v>199.53538499999999</v>
+        <v>61.354568</v>
       </c>
       <c r="S12" s="4">
-        <v>207.06021100000001</v>
+        <v>53.378020999999997</v>
       </c>
       <c r="T12" s="4">
-        <v>214.49801600000001</v>
+        <v>56.940868000000002</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7">
         <f t="shared" si="2"/>
-        <v>78.354555867161238</v>
+        <v>57.114542556146063</v>
       </c>
       <c r="F13" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>223.37111872744026</v>
+        <v>59.96380816976631</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>231.60644427889864</v>
+        <v>69.734797145466345</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="5"/>
-        <v>239.70165684233021</v>
+        <v>57.105542310899992</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="6"/>
-        <v>247.70911173432253</v>
+        <v>66.951456867260958</v>
       </c>
       <c r="Q13" s="4">
-        <v>223.37112400000001</v>
-      </c>
-      <c r="R13" s="4">
-        <v>231.60644500000001</v>
-      </c>
-      <c r="S13" s="4">
-        <v>239.70164500000001</v>
-      </c>
-      <c r="T13" s="4">
-        <v>247.70912200000001</v>
-      </c>
+        <v>228.72962999999999</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
         <f t="shared" si="2"/>
-        <v>89.096213253935176</v>
+        <v>61.114542556146063</v>
       </c>
       <c r="F14" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>257.1512286167208</v>
+        <v>63.195858977335185</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>265.95491350724814</v>
+        <v>73.734797145466345</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="5"/>
-        <v>274.61785532942582</v>
+        <v>61.841610288399778</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="6"/>
-        <v>283.19242650787038</v>
+        <v>72.40094661004413</v>
       </c>
       <c r="Q14" s="4">
         <v>257.15124500000002</v>
@@ -1239,44 +1264,44 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
         <f t="shared" si="2"/>
-        <v>100.4691966001426</v>
+        <v>65.850610533645849</v>
       </c>
       <c r="F15" s="7">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I15" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>293.20106305199153</v>
+        <v>69.341610288399764</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>302.57068661311206</v>
+        <v>80.56322427021253</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>311.79900107729441</v>
+        <v>69.341610288399778</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="6"/>
-        <v>320.93839320028519</v>
+        <v>80.563224270212515</v>
       </c>
       <c r="Q15" s="4">
         <v>293.20107999999999</v>
@@ -1293,44 +1318,44 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7">
         <f t="shared" si="2"/>
-        <v>112.4691966001426</v>
+        <v>71.300100276429021</v>
       </c>
       <c r="F16" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>331.5113127278982</v>
+        <v>70.841610288399764</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="4"/>
-        <v>341.44469448712385</v>
+        <v>82.977437832585622</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="5"/>
-        <v>351.23625501048815</v>
+        <v>72.57366109596866</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="6"/>
-        <v>360.93839320028519</v>
+        <v>84.563224270212515</v>
       </c>
       <c r="Q16" s="4">
         <v>331.51132200000001</v>
@@ -1347,44 +1372,44 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7">
         <f t="shared" si="2"/>
-        <v>125.09230222576025</v>
+        <v>77.445851587493607</v>
       </c>
       <c r="F17" s="7">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H17" s="3">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>372.07357047619678</v>
+        <v>75.57767826589955</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="4"/>
-        <v>382.56873289175979</v>
+        <v>88.426927575368794</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="5"/>
-        <v>392.92160778236058</v>
+        <v>78.719412407033246</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="6"/>
-        <v>403.1846044515205</v>
+        <v>91.3916513949587</v>
       </c>
       <c r="Q17" s="4">
         <v>372.073578</v>
@@ -1401,44 +1426,44 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7">
         <f t="shared" si="2"/>
-        <v>138.33494291287954</v>
+        <v>84.274278712239791</v>
       </c>
       <c r="F18" s="7">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>414.88019433911484</v>
+        <v>83.07767826589955</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="4"/>
-        <v>425.93533315710056</v>
+        <v>96.589205235537179</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="5"/>
-        <v>436.84775755553693</v>
+        <v>80.219412407033246</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="6"/>
-        <v>447.66988582575908</v>
+        <v>93.805864957331792</v>
       </c>
       <c r="Q18" s="4">
         <v>414.88018799999998</v>
@@ -1455,44 +1480,44 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7">
         <f t="shared" si="2"/>
-        <v>152.19384185642022</v>
+        <v>91.774278712239791</v>
       </c>
       <c r="F19" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>459.92419808443236</v>
+        <v>86.309729073468432</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>471.53765842414316</v>
+        <v>100.58920523553718</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="5"/>
-        <v>483.0080115933813</v>
+        <v>84.955480384533033</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="6"/>
-        <v>494.38768371284044</v>
+        <v>99.255354700114964</v>
       </c>
       <c r="Q19" s="4">
         <v>459.924194</v>
@@ -1509,44 +1534,44 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
         <f t="shared" si="2"/>
-        <v>166.66597781141979</v>
+        <v>99.936556372408177</v>
       </c>
       <c r="F20" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="H20" s="3">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I20" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>507.19916247182448</v>
+        <v>92.455480384533018</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="4"/>
-        <v>519.369419290471</v>
+        <v>107.41763236028336</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="5"/>
-        <v>531.39620601069691</v>
+        <v>92.455480384533033</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="6"/>
-        <v>543.3319556228397</v>
+        <v>107.41763236028335</v>
       </c>
       <c r="Q20" s="4">
         <v>507.19915800000001</v>
@@ -1563,44 +1588,44 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B21" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>181.74855350637563</v>
+        <v>101.43655637240818</v>
       </c>
       <c r="F21" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>556.69916247182448</v>
+        <v>93.955480384533018</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>569.42480442860847</v>
+        <v>109.83184592265646</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="5"/>
-        <v>582.00663958984126</v>
+        <v>95.687531192101915</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="6"/>
-        <v>594.49710701275137</v>
+        <v>111.41763236028335</v>
       </c>
       <c r="Q21" s="4">
         <v>556.69915800000001</v>
@@ -1617,44 +1642,44 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
         <f t="shared" si="2"/>
-        <v>197.43896926619905</v>
+        <v>103.85076993478127</v>
       </c>
       <c r="F22" s="7">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>608.41870692911732</v>
+        <v>98.691548362032805</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="4"/>
-        <v>621.69842292410419</v>
+        <v>115.28133566543963</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="5"/>
-        <v>634.83401864293012</v>
+        <v>101.8332825031665</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="6"/>
-        <v>647.87793853239828</v>
+        <v>118.24605948502953</v>
       </c>
       <c r="Q22" s="4">
         <v>608.41870100000006</v>
@@ -1671,44 +1696,44 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
         <f t="shared" si="2"/>
-        <v>213.73480078951178</v>
+        <v>107.08282074235015</v>
       </c>
       <c r="F23" s="7">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3">
-        <v>90</v>
-      </c>
-      <c r="H23" s="3">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>662.35268806117392</v>
+        <v>106.1915483620328</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="4"/>
-        <v>676.18525590460933</v>
+        <v>123.44361332560801</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="5"/>
-        <v>689.87341065709961</v>
+        <v>103.3332825031665</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="6"/>
-        <v>703.46960157902367</v>
+        <v>120.66027304740263</v>
       </c>
       <c r="Q23" s="4">
         <v>662.35266100000001</v>
@@ -1725,44 +1750,44 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B24" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>230.63378027507812</v>
+        <v>111.08282074235015</v>
       </c>
       <c r="F24" s="7">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="H24" s="3">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>718.49633882216688</v>
+        <v>109.42359916960169</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>732.88061561944198</v>
+        <v>127.44361332560801</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="5"/>
-        <v>747.12020500190863</v>
+        <v>108.06935048066629</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="6"/>
-        <v>761.26756055015642</v>
+        <v>126.1097627901858</v>
       </c>
       <c r="Q24" s="4">
         <v>718.49633800000004</v>
@@ -1779,44 +1804,44 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B25" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
         <f t="shared" si="2"/>
-        <v>248.13378027507812</v>
+        <v>115.81888871984994</v>
       </c>
       <c r="F25" s="7">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="H25" s="3">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I25" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>776.84519662396303</v>
+        <v>115.56935048066627</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="4"/>
-        <v>791.78011055605361</v>
+        <v>134.27204045035418</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="5"/>
-        <v>806.57007937297487</v>
+        <v>115.56935048066629</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="6"/>
-        <v>821.26756055015642</v>
+        <v>134.27204045035418</v>
       </c>
       <c r="Q25" s="4">
         <v>776.84521500000005</v>
@@ -1833,44 +1858,44 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B26" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
         <f t="shared" si="2"/>
-        <v>266.23279978867095</v>
+        <v>121.26837846263311</v>
       </c>
       <c r="F26" s="7">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>837.39507224508395</v>
+        <v>117.06935048066627</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>852.8796154944157</v>
+        <v>136.68625401272729</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="5"/>
-        <v>868.21897093806706</v>
+        <v>118.80140128823517</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="6"/>
-        <v>883.465599577342</v>
+        <v>138.27204045035418</v>
       </c>
       <c r="Q26" s="4">
         <v>837.395081</v>
@@ -1887,44 +1912,44 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B27" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
         <f t="shared" si="2"/>
-        <v>284.92895221137758</v>
+        <v>127.4141297736977</v>
       </c>
       <c r="F27" s="7">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I27" s="3">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>900.14202301104353</v>
+        <v>121.80541845816606</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="4"/>
-        <v>916.17524563540269</v>
+        <v>142.13574375551048</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="5"/>
-        <v>932.06305137085565</v>
+        <v>124.94715259929976</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="6"/>
-        <v>947.85790442275527</v>
+        <v>145.10046757510037</v>
       </c>
       <c r="Q27" s="4">
         <v>900.14202899999998</v>
@@ -1941,44 +1966,44 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B28" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7">
         <f t="shared" si="2"/>
-        <v>304.22045483350678</v>
+        <v>134.24255689844389</v>
       </c>
       <c r="F28" s="7">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3">
-        <v>110</v>
-      </c>
-      <c r="H28" s="3">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>965.0823295199541</v>
+        <v>129.30541845816606</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="4"/>
-        <v>981.66333411710423</v>
+        <v>150.29802141567885</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="5"/>
-        <v>998.09870512370844</v>
+        <v>126.44715259929976</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="6"/>
-        <v>1014.4409096670137</v>
+        <v>147.51468113747347</v>
       </c>
       <c r="Q28" s="4">
         <v>965.08233600000005</v>
@@ -1995,44 +2020,44 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7">
         <f t="shared" si="2"/>
-        <v>324.10561964064129</v>
+        <v>141.74255689844389</v>
       </c>
       <c r="F29" s="7">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>1032.2124753326887</v>
+        <v>132.53746926573493</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="4"/>
-        <v>1049.3404123691355</v>
+        <v>154.29802141567885</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="5"/>
-        <v>1066.3225104184721</v>
+        <v>131.18322057679956</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="6"/>
-        <v>1083.2112392812828</v>
+        <v>152.96417088025666</v>
       </c>
       <c r="Q29" s="4">
         <v>1032.212524</v>
@@ -2049,44 +2074,44 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B30" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>344.58284521569294</v>
+        <v>149.90483455861227</v>
       </c>
       <c r="F30" s="7">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="G30" s="3">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="H30" s="3">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="I30" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>1101.5291291590806</v>
+        <v>138.68322057679953</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="4"/>
-        <v>1119.2031928603358</v>
+        <v>161.12644854042503</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="5"/>
-        <v>1136.7312225331079</v>
+        <v>138.68322057679956</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="6"/>
-        <v>1154.1656904313861</v>
+        <v>161.12644854042503</v>
       </c>
       <c r="Q30" s="4">
         <v>1101.5291749999999</v>
@@ -2103,44 +2128,44 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B31" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7">
         <f t="shared" si="2"/>
-        <v>365.65060957852296</v>
+        <v>151.40483455861227</v>
       </c>
       <c r="F31" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="H31" s="3">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>1173.0291291590806</v>
+        <v>140.18322057679953</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="4"/>
-        <v>1191.2485538775231</v>
+        <v>163.54066210279814</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="5"/>
-        <v>1209.3217590395172</v>
+        <v>141.91527138436842</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="6"/>
-        <v>1227.3012191570463</v>
+        <v>165.12644854042503</v>
       </c>
       <c r="Q31" s="4">
         <v>1173.0291749999999</v>
@@ -2157,44 +2182,44 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7">
         <f t="shared" si="2"/>
-        <v>387.30746382801533</v>
+        <v>153.81904812098537</v>
       </c>
       <c r="F32" s="7">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="I32" s="3">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>1246.7094690465797</v>
+        <v>144.91928855429933</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="4"/>
-        <v>1265.473526037845</v>
+        <v>168.99015184558132</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="5"/>
-        <v>1284.091186709102</v>
+        <v>148.06102269543302</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="6"/>
-        <v>1302.6149276560311</v>
+        <v>171.95487566517122</v>
       </c>
       <c r="Q32" s="4">
         <v>1246.7094729999999</v>
@@ -2211,44 +2236,44 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B33" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7">
         <f t="shared" si="2"/>
-        <v>409.55202647455337</v>
+        <v>157.05109892855424</v>
       </c>
       <c r="F33" s="7">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="G33" s="3">
-        <v>130</v>
-      </c>
-      <c r="H33" s="3">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>1322.5672857381803</v>
+        <v>152.41928855429933</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="4"/>
-        <v>1341.8752802888364</v>
+        <v>177.15242950574969</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="5"/>
-        <v>1361.0367098513616</v>
+        <v>149.56102269543302</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="6"/>
-        <v>1380.1040529491072</v>
+        <v>174.36908922754432</v>
       </c>
       <c r="Q33" s="4">
         <v>1322.5672609999999</v>
@@ -2265,44 +2290,44 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B34" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7">
         <f t="shared" si="2"/>
-        <v>432.3829783693987</v>
+        <v>161.05109892855424</v>
       </c>
       <c r="F34" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="H34" s="3">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="I34" s="3">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>1400.599848332851</v>
+        <v>155.6513393618682</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="4"/>
-        <v>1420.4511171916265</v>
+        <v>181.15242950574969</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="5"/>
-        <v>1440.1556598899838</v>
+        <v>154.29709067293282</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="6"/>
-        <v>1459.7659567387977</v>
+        <v>179.81857897032751</v>
       </c>
       <c r="Q34" s="4">
         <v>1400.5998540000001</v>
@@ -2319,44 +2344,44 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B35" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7">
         <f t="shared" si="2"/>
-        <v>455.79905815249833</v>
+        <v>165.78716690605404</v>
       </c>
       <c r="F35" s="7">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="I35" s="3">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="2">
         <f t="shared" si="3"/>
-        <v>1480.8045482435707</v>
+        <v>161.7970906729328</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="4"/>
-        <v>1501.1984573160973</v>
+        <v>187.98085663049588</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="5"/>
-        <v>1521.4454860125354</v>
+        <v>161.79709067293282</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="6"/>
-        <v>1541.5981163049969</v>
+        <v>187.98085663049588</v>
       </c>
       <c r="Q35" s="4">
         <v>1480.8045649999999</v>
@@ -2373,15 +2398,15 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B36" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7">
         <f t="shared" si="2"/>
-        <v>479.79905815249833</v>
+        <v>171.23665664883723</v>
       </c>
       <c r="F36" s="7">
         <v>141</v>
@@ -2398,19 +2423,19 @@
       <c r="J36" s="6"/>
       <c r="K36" s="2">
         <f t="shared" si="3"/>
-        <v>1563.1788903306087</v>
+        <v>244.17143275997071</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="4"/>
-        <v>1584.1148326039104</v>
+        <v>270.89723191830882</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="5"/>
-        <v>1604.9037467556368</v>
+        <v>245.25535141603422</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="6"/>
-        <v>1625.5981163049969</v>
+        <v>271.98085663049585</v>
       </c>
       <c r="Q36" s="4">
         <v>1563.1789550000001</v>
@@ -2427,15 +2452,15 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B37" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7">
         <f t="shared" si="2"/>
-        <v>504.38182068279656</v>
+        <v>177.38240795990183</v>
       </c>
       <c r="F37" s="7">
         <v>145</v>
@@ -2452,19 +2477,19 @@
       <c r="J37" s="6"/>
       <c r="K37" s="2">
         <f t="shared" si="3"/>
-        <v>1647.720484909401</v>
+        <v>328.71302733876297</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="4"/>
-        <v>1669.197878577505</v>
+        <v>355.98027789190337</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="5"/>
-        <v>1690.5281024086189</v>
+        <v>330.87970706901638</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="6"/>
-        <v>1711.7636413655932</v>
+        <v>358.1463816910923</v>
       </c>
       <c r="Q37" s="4">
         <v>1647.720581</v>
@@ -2481,15 +2506,15 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B38" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7">
         <f t="shared" si="2"/>
-        <v>529.54623468576563</v>
+        <v>184.21083508464801</v>
       </c>
       <c r="F38" s="7">
         <v>149</v>
@@ -2506,19 +2531,19 @@
       <c r="J38" s="6"/>
       <c r="K38" s="2">
         <f t="shared" si="3"/>
-        <v>1734.4270405251348</v>
+        <v>415.41958295449666</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="4"/>
-        <v>1756.4453272914209</v>
+        <v>443.22772660581927</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="5"/>
-        <v>1778.3163081360635</v>
+        <v>418.66791279646088</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="6"/>
-        <v>1800.0924693715313</v>
+        <v>446.47520969703027</v>
       </c>
       <c r="Q38" s="4">
         <v>1734.427124</v>
@@ -2535,15 +2560,15 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7">
         <f t="shared" si="2"/>
-        <v>555.29123268416402</v>
+        <v>191.71083508464801</v>
       </c>
       <c r="F39" s="7">
         <v>153</v>
@@ -2560,19 +2585,19 @@
       <c r="J39" s="6"/>
       <c r="K39" s="2">
         <f t="shared" si="3"/>
-        <v>1823.2963574019877</v>
+        <v>504.28889983134962</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="4"/>
-        <v>1845.8550009374117</v>
+        <v>532.63740025181016</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="5"/>
-        <v>1868.2662077340522</v>
+        <v>508.61781239444963</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="6"/>
-        <v>1890.582465368328</v>
+        <v>536.9652056938271</v>
       </c>
       <c r="Q39" s="4">
         <v>1823.2963870000001</v>
@@ -2589,15 +2614,15 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B40" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7">
         <f t="shared" si="2"/>
-        <v>581.61578800450081</v>
+        <v>199.87311274481638</v>
       </c>
       <c r="F40" s="7">
         <v>157</v>
@@ -2614,19 +2639,19 @@
       <c r="J40" s="6"/>
       <c r="K40" s="2">
         <f t="shared" si="3"/>
-        <v>1914.3263214881295</v>
+        <v>595.3188639174914</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="4"/>
-        <v>1937.4248060273883</v>
+        <v>624.20720534178668</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="5"/>
-        <v>1960.3757279469708</v>
+        <v>600.72733260736811</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="6"/>
-        <v>1983.2315760090016</v>
+        <v>629.61431633450059</v>
       </c>
       <c r="Q40" s="4">
         <v>1914.326294</v>
@@ -2643,15 +2668,15 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B41" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7">
         <f t="shared" si="2"/>
-        <v>608.51891224193366</v>
+        <v>201.37311274481638</v>
       </c>
       <c r="F41" s="7">
         <v>161</v>
@@ -2668,19 +2693,19 @@
       <c r="J41" s="6"/>
       <c r="K41" s="2">
         <f t="shared" si="3"/>
-        <v>2007.5148990285791</v>
+        <v>688.5074414579409</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="4"/>
-        <v>2031.1527280887462</v>
+        <v>717.93512740314452</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="5"/>
-        <v>2054.6428732817744</v>
+        <v>694.99447794217178</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="6"/>
-        <v>2078.0378244838671</v>
+        <v>724.42056480936628</v>
       </c>
       <c r="Q41" s="4">
         <v>2007.514893</v>
@@ -2697,15 +2722,15 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B42" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
         <f t="shared" si="2"/>
-        <v>635.99965294034155</v>
+        <v>203.78732630718949</v>
       </c>
       <c r="F42" s="7">
         <v>165</v>
@@ -2722,19 +2747,19 @@
       <c r="J42" s="6"/>
       <c r="K42" s="2">
         <f t="shared" si="3"/>
-        <v>2102.8601316072441</v>
+        <v>783.852674036606</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="4"/>
-        <v>2127.0368268154712</v>
+        <v>813.81922612986966</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="5"/>
-        <v>2151.0657212650945</v>
+        <v>791.41732592549192</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="6"/>
-        <v>2174.9993058806826</v>
+        <v>821.38204620618205</v>
       </c>
       <c r="Q42" s="4">
         <v>2102.860107</v>
@@ -2751,15 +2776,15 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B43" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
         <f t="shared" si="2"/>
-        <v>664.05709146464358</v>
+        <v>207.01937711475836</v>
       </c>
       <c r="F43" s="7">
         <v>169</v>
@@ -2776,19 +2801,19 @@
       <c r="J43" s="6"/>
       <c r="K43" s="2">
         <f t="shared" si="3"/>
-        <v>2200.3601316072441</v>
+        <v>881.352674036606</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="4"/>
-        <v>2225.0752316258763</v>
+        <v>911.85763094027493</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="5"/>
-        <v>2249.6424180957165</v>
+        <v>889.99402275611396</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="6"/>
-        <v>2274.1141829292865</v>
+        <v>920.496923254786</v>
       </c>
       <c r="Q43" s="4">
         <v>2200.360107</v>
@@ -2805,15 +2830,15 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B44" s="7">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7">
         <f t="shared" si="2"/>
-        <v>692.69034104535433</v>
+        <v>211.01937711475836</v>
       </c>
       <c r="F44" s="7">
         <v>173</v>
@@ -2830,19 +2855,19 @@
       <c r="J44" s="6"/>
       <c r="K44" s="2">
         <f t="shared" si="3"/>
-        <v>2300.01307804521</v>
+        <v>981.00562047457186</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="4"/>
-        <v>2325.2661375841494</v>
+        <v>1012.0485368985478</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="5"/>
-        <v>2350.3711746510394</v>
+        <v>990.72277931143697</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="6"/>
-        <v>2375.380682090708</v>
+        <v>1021.7634224162076</v>
       </c>
       <c r="Q44" s="4">
         <v>2300.0129390000002</v>
@@ -2859,15 +2884,15 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B45" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7">
         <f t="shared" si="2"/>
-        <v>721.8985449778537</v>
+        <v>215.75544509225816</v>
       </c>
       <c r="F45" s="7">
         <v>177</v>
@@ -2884,19 +2909,19 @@
       <c r="J45" s="6"/>
       <c r="K45" s="2">
         <f t="shared" si="3"/>
-        <v>2401.8172127408602</v>
+        <v>1082.8097551702219</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="4"/>
-        <v>2427.6078016482757</v>
+        <v>1114.390200962674</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="5"/>
-        <v>2453.2502628112989</v>
+        <v>1093.6018674716968</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="6"/>
-        <v>2478.7970899557067</v>
+        <v>1125.1798302812063</v>
       </c>
       <c r="Q45" s="4">
         <v>2401.8171390000002</v>
@@ -2913,15 +2938,15 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B46" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
         <f t="shared" si="2"/>
-        <v>751.68087496097894</v>
+        <v>221.20493483504134</v>
       </c>
       <c r="F46" s="7">
         <v>181</v>
@@ -2938,19 +2963,19 @@
       <c r="J46" s="6"/>
       <c r="K46" s="2">
         <f t="shared" si="3"/>
-        <v>2505.7708367879341</v>
+        <v>1186.7633792172956</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="4"/>
-        <v>2532.0985392115076</v>
+        <v>1218.880938525906</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="5"/>
-        <v>2558.2780120697676</v>
+        <v>1198.6296167301655</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="6"/>
-        <v>2584.3617499219572</v>
+        <v>1230.7444902474567</v>
       </c>
       <c r="Q46" s="4">
         <v>2505.7707519999999</v>
@@ -2967,15 +2992,15 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="7">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B47" s="7">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f t="shared" si="2"/>
-        <v>782.03652956138001</v>
+        <v>227.35068614610594</v>
       </c>
       <c r="F47" s="7">
         <v>185</v>
@@ -2992,19 +3017,19 @@
       <c r="J47" s="6"/>
       <c r="K47" s="2">
         <f t="shared" si="3"/>
-        <v>2611.8723072966695</v>
+        <v>1292.864849726031</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="4"/>
-        <v>2638.7367209084937</v>
+        <v>1325.5191202228918</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="5"/>
-        <v>2665.4528064009451</v>
+        <v>1305.8044110613428</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="6"/>
-        <v>2692.0730591227593</v>
+        <v>1338.4557994482589</v>
       </c>
       <c r="Q47" s="4">
         <v>2611.8723140000002</v>
@@ -3021,15 +3046,15 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B48" s="7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7">
         <f t="shared" si="2"/>
-        <v>812.96473279165548</v>
+        <v>234.17911327085213</v>
       </c>
       <c r="F48" s="7">
         <v>189</v>
@@ -3046,19 +3071,19 @@
       <c r="J48" s="6"/>
       <c r="K48" s="2">
         <f t="shared" si="3"/>
-        <v>2720.1200343815372</v>
+        <v>1401.1125768108986</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="4"/>
-        <v>2747.5207696605839</v>
+        <v>1434.3031689749821</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="5"/>
-        <v>2774.7730813620301</v>
+        <v>1415.124686022428</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="6"/>
-        <v>2801.9294655833105</v>
+        <v>1448.3122059088098</v>
       </c>
       <c r="Q48" s="4">
         <v>2720.1201169999999</v>
@@ -3075,15 +3100,15 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B49" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7">
         <f t="shared" si="2"/>
-        <v>844.46473279165548</v>
+        <v>241.67911327085213</v>
       </c>
       <c r="F49" s="7">
         <v>193</v>
@@ -3100,19 +3125,19 @@
       <c r="J49" s="6"/>
       <c r="K49" s="2">
         <f t="shared" si="3"/>
-        <v>2830.5124783709871</v>
+        <v>1511.5050208003483</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="4"/>
-        <v>2858.4491579377682</v>
+        <v>1545.2315572521661</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="5"/>
-        <v>2886.2373214057989</v>
+        <v>1526.588926066197</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="6"/>
-        <v>2913.9294655833105</v>
+        <v>1560.3122059088098</v>
       </c>
       <c r="Q49" s="4">
         <v>2830.5124510000001</v>
@@ -3129,15 +3154,15 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B50" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7">
         <f t="shared" si="2"/>
-        <v>876.53580060352101</v>
+        <v>249.8413909310205</v>
       </c>
       <c r="F50" s="7">
         <v>197</v>
@@ -3154,19 +3179,19 @@
       <c r="J50" s="6"/>
       <c r="K50" s="2">
         <f t="shared" si="3"/>
-        <v>2943.0481472186052</v>
+        <v>1624.0406896479665</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="4"/>
-        <v>2971.5204052172385</v>
+        <v>1658.3028045316364</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="5"/>
-        <v>2999.8440573854646</v>
+        <v>1640.1956620458629</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="6"/>
-        <v>3028.0716012070416</v>
+        <v>1674.4543415325406</v>
       </c>
       <c r="Q50" s="4">
         <v>2943.048096</v>
@@ -3191,7 +3216,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7">
         <f t="shared" si="2"/>
-        <v>909.17722903206391</v>
+        <v>282.48281935956334</v>
       </c>
       <c r="F51" s="7">
         <v>201</v>
@@ -3208,19 +3233,19 @@
       <c r="J51" s="6"/>
       <c r="K51" s="2">
         <f t="shared" si="3"/>
-        <v>3057.7255940973632</v>
+        <v>1738.7181365267243</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="4"/>
-        <v>3086.7330756207903</v>
+        <v>1773.5154749351882</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="5"/>
-        <v>3115.5918642342394</v>
+        <v>1755.943468894638</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="6"/>
-        <v>3144.3544580641274</v>
+        <v>1790.7371983896264</v>
       </c>
       <c r="Q51" s="4">
         <v>3057.725586</v>
@@ -3245,7 +3270,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7">
         <f t="shared" si="2"/>
-        <v>942.3883315829919</v>
+        <v>315.69392191049133</v>
       </c>
       <c r="F52" s="7">
         <v>205</v>
@@ -3262,19 +3287,19 @@
       <c r="J52" s="6"/>
       <c r="K52" s="2">
         <f t="shared" si="3"/>
-        <v>3174.5434151606396</v>
+        <v>1855.5359575900006</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="4"/>
-        <v>3204.0857757151975</v>
+        <v>1890.8681750295955</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="5"/>
-        <v>3233.4793588041775</v>
+        <v>1873.8309634645761</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="6"/>
-        <v>3262.7766631659833</v>
+        <v>1909.1594034914824</v>
       </c>
       <c r="Q52" s="4">
         <v>3174.5434570000002</v>
@@ -3299,7 +3324,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7">
         <f t="shared" si="2"/>
-        <v>976.16844147227243</v>
+        <v>349.47403179977186</v>
       </c>
       <c r="F53" s="7">
         <v>209</v>
@@ -3316,19 +3341,19 @@
       <c r="J53" s="6"/>
       <c r="K53" s="2">
         <f t="shared" si="3"/>
-        <v>3293.5002474554403</v>
+        <v>1974.4927898848016</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="4"/>
-        <v>3323.577152461387</v>
+        <v>2010.3595517757849</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="5"/>
-        <v>3353.5051978505116</v>
+        <v>1993.85680251091</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="6"/>
-        <v>3383.3368829445444</v>
+        <v>2029.7196232700435</v>
       </c>
       <c r="Q53" s="4">
         <v>3293.5002439999998</v>
@@ -3353,7 +3378,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7">
         <f t="shared" si="2"/>
-        <v>1010.516910700622</v>
+        <v>383.82250102812139</v>
       </c>
       <c r="F54" s="7">
         <v>213</v>
@@ -3370,19 +3395,19 @@
       <c r="J54" s="6"/>
       <c r="K54" s="2">
         <f t="shared" si="3"/>
-        <v>3414.5947669747666</v>
+        <v>2095.5873094041281</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="4"/>
-        <v>3445.2058912997149</v>
+        <v>2131.9882906141129</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="5"/>
-        <v>3475.668076149127</v>
+        <v>2116.0196808095252</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="6"/>
-        <v>3506.0338214012436</v>
+        <v>2152.4165617267427</v>
       </c>
       <c r="Q54" s="4">
         <v>3414.5947270000001</v>
@@ -3407,7 +3432,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7">
         <f t="shared" si="2"/>
-        <v>1045.4331091877177</v>
+        <v>418.73869951521704</v>
       </c>
       <c r="F55" s="7">
         <v>217</v>
@@ -3424,19 +3449,19 @@
       <c r="J55" s="6"/>
       <c r="K55" s="2">
         <f t="shared" si="3"/>
-        <v>3537.8256868374228</v>
+        <v>2218.8182292667843</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="4"/>
-        <v>3568.9707143599485</v>
+        <v>2255.7531136743464</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="5"/>
-        <v>3599.9667247360758</v>
+        <v>2240.3183293964739</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="6"/>
-        <v>3630.866218375435</v>
+        <v>2277.2489587009341</v>
       </c>
       <c r="Q55" s="4">
         <v>3537.8256839999999</v>
@@ -3461,7 +3486,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7">
         <f t="shared" si="2"/>
-        <v>1080.9164239612655</v>
+        <v>454.22201428876491</v>
       </c>
       <c r="F56" s="7">
         <v>221</v>
@@ -3478,19 +3503,19 @@
       <c r="J56" s="6"/>
       <c r="K56" s="2">
         <f t="shared" si="3"/>
-        <v>3663.1917555847413</v>
+        <v>2344.1842980141028</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="4"/>
-        <v>3694.8703787856998</v>
+        <v>2381.6527781000977</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="5"/>
-        <v>3726.3999092591439</v>
+        <v>2366.751513919542</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="6"/>
-        <v>3757.8328479225306</v>
+        <v>2404.2155882480297</v>
       </c>
       <c r="Q56" s="4">
         <v>3663.1916500000002</v>
@@ -3515,7 +3540,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7">
         <f t="shared" si="2"/>
-        <v>1116.9662583965362</v>
+        <v>490.27184872403564</v>
       </c>
       <c r="F57" s="7">
         <v>225</v>
@@ -3532,19 +3557,19 @@
       <c r="J57" s="6"/>
       <c r="K57" s="2">
         <f t="shared" si="3"/>
-        <v>3790.6917555847413</v>
+        <v>2471.6842980141028</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="4"/>
-        <v>3822.9036751640729</v>
+        <v>2509.6860744784708</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="5"/>
-        <v>3854.9664284324631</v>
+        <v>2495.3180330928612</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="6"/>
-        <v>3886.932516793072</v>
+        <v>2533.315257118571</v>
       </c>
       <c r="Q57" s="4">
         <v>3790.6916500000002</v>
@@ -3569,7 +3594,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7">
         <f t="shared" si="2"/>
-        <v>1153.5820315024</v>
+        <v>526.88762182989956</v>
       </c>
       <c r="F58" s="7">
         <v>229</v>
@@ -3586,19 +3611,19 @@
       <c r="J58" s="6"/>
       <c r="K58" s="2">
         <f t="shared" si="3"/>
-        <v>3920.3245015351627</v>
+        <v>2601.3170439645241</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="4"/>
-        <v>3953.0694260521759</v>
+        <v>2639.8518253665738</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="5"/>
-        <v>3985.665112586034</v>
+        <v>2626.0167172464321</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="6"/>
-        <v>4018.1640630047996</v>
+        <v>2664.5468033302986</v>
       </c>
       <c r="Q58" s="4">
         <v>3920.3244629999999</v>
@@ -3623,7 +3648,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7">
         <f t="shared" si="2"/>
-        <v>1190.7631772502687</v>
+        <v>564.0687675777682</v>
       </c>
       <c r="F59" s="7">
         <v>233</v>
@@ -3640,19 +3665,19 @@
       <c r="J59" s="6"/>
       <c r="K59" s="2">
         <f t="shared" si="3"/>
-        <v>4052.0888390576365</v>
+        <v>2733.081381486998</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="4"/>
-        <v>4085.3664845929543</v>
+        <v>2772.1488839073522</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="5"/>
-        <v>4118.4948223027895</v>
+        <v>2758.8464269631882</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="6"/>
-        <v>4151.5263545005364</v>
+        <v>2797.9090948260359</v>
       </c>
       <c r="Q59" s="4">
         <v>4052.0888669999999</v>
@@ -3677,7 +3702,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7">
         <f t="shared" si="2"/>
-        <v>1228.5091439426835</v>
+        <v>601.81473427018307</v>
       </c>
       <c r="F60" s="7">
         <v>237</v>
@@ -3694,19 +3719,19 @@
       <c r="J60" s="6"/>
       <c r="K60" s="2">
         <f t="shared" si="3"/>
-        <v>4185.9836433759774</v>
+        <v>2866.9761858053384</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="4"/>
-        <v>4219.7937332134961</v>
+        <v>2906.5761325278936</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="5"/>
-        <v>4253.4544471365298</v>
+        <v>2893.8060517969284</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="6"/>
-        <v>4287.0182878853657</v>
+        <v>2933.4010282108657</v>
       </c>
       <c r="Q60" s="4">
         <v>4185.9838870000003</v>
@@ -3731,7 +3756,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7">
         <f t="shared" si="2"/>
-        <v>1266.8193936185901</v>
+        <v>640.12498394608974</v>
       </c>
       <c r="F61" s="7">
         <v>241</v>
@@ -3748,19 +3773,19 @@
       <c r="J61" s="6"/>
       <c r="K61" s="2">
         <f t="shared" si="3"/>
-        <v>4322.0078180722376</v>
+        <v>3003.0003605015986</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="4"/>
-        <v>4356.3500823996001</v>
+        <v>3043.1324817139975</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="5"/>
-        <v>4390.5429044046496</v>
+        <v>3030.8945090650482</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="6"/>
-        <v>4424.6387872371788</v>
+        <v>3071.0215275626788</v>
       </c>
       <c r="Q61" s="4">
         <v>4322.0083009999998</v>
@@ -3785,7 +3810,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7">
         <f t="shared" si="2"/>
-        <v>1305.6934014926019</v>
+        <v>678.99899182010154</v>
       </c>
       <c r="F62" s="7">
         <v>245</v>
@@ -3802,19 +3827,19 @@
       <c r="J62" s="6"/>
       <c r="K62" s="2">
         <f t="shared" si="3"/>
-        <v>4460.160293914736</v>
+        <v>3141.1528363440971</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="4"/>
-        <v>4495.0344695409585</v>
+        <v>3181.8168688553556</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="5"/>
-        <v>4529.7591380501517</v>
+        <v>3170.1107427105499</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="6"/>
-        <v>4564.3868029852028</v>
+        <v>3210.7695433107024</v>
       </c>
       <c r="Q62" s="4">
         <v>4460.1606449999999</v>
@@ -3839,7 +3864,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7">
         <f t="shared" si="2"/>
-        <v>1345.1306554257956</v>
+        <v>718.43624575329534</v>
       </c>
       <c r="F63" s="7">
         <v>249</v>
@@ -3856,19 +3881,19 @@
       <c r="J63" s="6"/>
       <c r="K63" s="2">
         <f t="shared" si="3"/>
-        <v>4600.4400277527957</v>
+        <v>3281.4325701821567</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="4"/>
-        <v>4635.8458578418004</v>
+        <v>3322.6282571561974</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="5"/>
-        <v>4671.1021175679061</v>
+        <v>3311.4537222283047</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="6"/>
-        <v>4706.2613108515907</v>
+        <v>3352.6440511770898</v>
       </c>
       <c r="Q63" s="4">
         <v>4600.4404299999997</v>
@@ -3893,7 +3918,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7">
         <f t="shared" si="2"/>
-        <v>1385.1306554257956</v>
+        <v>758.43624575329534</v>
       </c>
       <c r="F64" s="7">
         <v>253</v>
@@ -3910,19 +3935,19 @@
       <c r="J64" s="6"/>
       <c r="K64" s="2">
         <f t="shared" si="3"/>
-        <v>4742.8460014733828</v>
+        <v>3423.8385439027434</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="4"/>
-        <v>4778.7832352923097</v>
+        <v>3465.5656346067067</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="5"/>
-        <v>4814.5708369905778</v>
+        <v>3454.922441650976</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="6"/>
-        <v>4850.2613108515907</v>
+        <v>3496.6440511770898</v>
       </c>
       <c r="Q64" s="4">
         <v>4742.8461909999996</v>
@@ -3947,7 +3972,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7">
         <f t="shared" si="2"/>
-        <v>1425.6929131740942</v>
+        <v>798.99850350159386</v>
       </c>
       <c r="F65" s="7">
         <v>257</v>
@@ -3964,19 +3989,19 @@
       <c r="J65" s="6"/>
       <c r="K65" s="2">
         <f t="shared" si="3"/>
-        <v>4887.3772210152638</v>
+        <v>3568.3697634446248</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="4"/>
-        <v>4923.8456136965187</v>
+        <v>3610.6280130109158</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="5"/>
-        <v>4960.1643139300086</v>
+        <v>3600.5159185904072</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="6"/>
-        <v>4996.3858263481879</v>
+        <v>3642.768566673687</v>
       </c>
       <c r="Q65" s="4">
         <v>4887.3774409999996</v>
@@ -4001,7 +4026,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7">
         <f t="shared" si="2"/>
-        <v>1466.8169515787301</v>
+        <v>840.1225419062298</v>
       </c>
       <c r="F66" s="7">
         <v>261</v>
@@ -4018,19 +4043,19 @@
       <c r="J66" s="6"/>
       <c r="K66" s="2">
         <f t="shared" si="3"/>
-        <v>5034.0327154366669</v>
+        <v>3715.0252578660284</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="4"/>
-        <v>5071.0320277527571</v>
+        <v>3757.8144270671546</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="5"/>
-        <v>5107.881588670235</v>
+        <v>3748.2331933306341</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="6"/>
-        <v>5144.6339031574598</v>
+        <v>3791.0166434829589</v>
       </c>
       <c r="Q66" s="4">
         <v>5034.0327150000003</v>
@@ -4055,7 +4080,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7">
         <f t="shared" ref="D67:D130" si="7">D66+A67/2+SQRT(B67)</f>
-        <v>1508.5023043506026</v>
+        <v>881.80789467810223</v>
       </c>
       <c r="F67" s="7">
         <v>265</v>
@@ -4072,19 +4097,19 @@
       <c r="J67" s="6"/>
       <c r="K67" s="2">
         <f t="shared" ref="K67:K100" si="8">K66+F67/2+SQRT(F67)</f>
-        <v>5182.8115360327665</v>
+        <v>3863.804078462128</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" ref="L67:L100" si="9">L66+G67/2+SQRT(G67)</f>
-        <v>5220.3415341830569</v>
+        <v>3907.1239334974548</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ref="M67:M100" si="10">M66+H67/2+SQRT(H67)</f>
-        <v>5257.721723308603</v>
+        <v>3898.0733279690021</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" ref="N67:N100" si="11">N66+I67/2+SQRT(I67)</f>
-        <v>5295.0046087012051</v>
+        <v>3941.3873490267038</v>
       </c>
       <c r="Q67" s="4">
         <v>5182.8115230000003</v>
@@ -4109,7 +4134,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7">
         <f t="shared" si="7"/>
-        <v>1550.7485156018379</v>
+        <v>924.05410592933754</v>
       </c>
       <c r="F68" s="7">
         <v>269</v>
@@ -4126,19 +4151,19 @@
       <c r="J68" s="6"/>
       <c r="K68" s="2">
         <f t="shared" si="8"/>
-        <v>5333.7127554996232</v>
+        <v>4014.7052979289847</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="9"/>
-        <v>5371.7732109082117</v>
+        <v>4058.5556102226096</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="10"/>
-        <v>5409.683800941757</v>
+        <v>4050.0354056021565</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="11"/>
-        <v>5447.4970312036758</v>
+        <v>4093.8797715291744</v>
       </c>
       <c r="Q68" s="4">
         <v>5333.7128910000001</v>
@@ -4163,7 +4188,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7">
         <f t="shared" si="7"/>
-        <v>1593.5551394647559</v>
+        <v>966.8607297922556</v>
       </c>
       <c r="F69" s="7">
         <v>273</v>
@@ -4180,19 +4205,19 @@
       <c r="J69" s="6"/>
       <c r="K69" s="2">
         <f t="shared" si="8"/>
-        <v>5486.7354671414814</v>
+        <v>4167.7280095708429</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" si="9"/>
-        <v>5525.3261562654588</v>
+        <v>4212.1085555798563</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" si="10"/>
-        <v>5563.7669248935345</v>
+        <v>4204.1185295539344</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="11"/>
-        <v>5602.1102789295119</v>
+        <v>4248.4930192550109</v>
       </c>
       <c r="Q69" s="4">
         <v>5486.7358400000003</v>
@@ -4217,7 +4242,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7">
         <f t="shared" si="7"/>
-        <v>1636.9217397300968</v>
+        <v>1010.2273300575963</v>
       </c>
       <c r="F70" s="7">
         <v>277</v>
@@ -4234,19 +4259,19 @@
       <c r="J70" s="6"/>
       <c r="K70" s="2">
         <f t="shared" si="8"/>
-        <v>5641.8787841185749</v>
+        <v>4322.8713265479364</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="9"/>
-        <v>5680.9994882659921</v>
+        <v>4367.7818875803896</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="10"/>
-        <v>5719.9702179820242</v>
+        <v>4360.3218226424242</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" si="11"/>
-        <v>5758.8434794601935</v>
+        <v>4405.2262197856926</v>
       </c>
       <c r="Q70" s="4">
         <v>5641.8793949999999</v>
@@ -4271,7 +4296,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7">
         <f t="shared" si="7"/>
-        <v>1680.8478895032731</v>
+        <v>1054.1534798307725</v>
       </c>
       <c r="F71" s="7">
         <v>281</v>
@@ -4288,19 +4313,19 @@
       <c r="J71" s="6"/>
       <c r="K71" s="2">
         <f t="shared" si="8"/>
-        <v>5799.1418387328149</v>
+        <v>4480.1343811621764</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="9"/>
-        <v>5838.7923438897387</v>
+        <v>4525.5747432041362</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="10"/>
-        <v>5878.2928218232846</v>
+        <v>4518.6444264836846</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="11"/>
-        <v>5917.6957790065462</v>
+        <v>4564.0785193320453</v>
       </c>
       <c r="Q71" s="4">
         <v>5799.142578</v>
@@ -4325,7 +4350,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7">
         <f t="shared" si="7"/>
-        <v>1725.3331708775117</v>
+        <v>1098.6387612050112</v>
       </c>
       <c r="F72" s="7">
         <v>285</v>
@@ -4342,19 +4367,19 @@
       <c r="J72" s="6"/>
       <c r="K72" s="2">
         <f t="shared" si="8"/>
-        <v>5958.5237817489487</v>
+        <v>4639.5163241783102</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="9"/>
-        <v>5998.7038784150263</v>
+        <v>4685.4862777294238</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="10"/>
-        <v>6038.7338961693822</v>
+        <v>4679.0855008297822</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="11"/>
-        <v>6078.6663417550235</v>
+        <v>4725.0490820805226</v>
       </c>
       <c r="Q72" s="4">
         <v>5958.5244140000004</v>
@@ -4379,7 +4404,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7">
         <f t="shared" si="7"/>
-        <v>1770.3771746228292</v>
+        <v>1143.6827649503286</v>
       </c>
       <c r="F73" s="7">
         <v>289</v>
@@ -4396,19 +4421,19 @@
       <c r="J73" s="6"/>
       <c r="K73" s="2">
         <f t="shared" si="8"/>
-        <v>6120.0237817489487</v>
+        <v>4801.0163241783102</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="9"/>
-        <v>6160.7332647809526</v>
+        <v>4847.5156640953501</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="10"/>
-        <v>6201.2926182786141</v>
+        <v>4841.6442229390141</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="11"/>
-        <v>6241.7543492456589</v>
+        <v>4888.137089571158</v>
       </c>
       <c r="Q73" s="4">
         <v>6120.0244140000004</v>
@@ -4433,7 +4458,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7">
         <f t="shared" si="7"/>
-        <v>1815.9794998898719</v>
+        <v>1189.2850902173714</v>
       </c>
       <c r="F74" s="7">
         <v>293</v>
@@ -4450,19 +4475,19 @@
       <c r="J74" s="6"/>
       <c r="K74" s="2">
         <f t="shared" si="8"/>
-        <v>6283.6410245175721</v>
+        <v>4964.6335669469336</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="9"/>
-        <v>6324.8796929804348</v>
+        <v>5011.6620922948323</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="10"/>
-        <v>6365.9681823159317</v>
+        <v>5006.3197869763317</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="11"/>
-        <v>6406.9589997797439</v>
+        <v>5053.3417401052429</v>
       </c>
       <c r="Q74" s="4">
         <v>6283.6416019999997</v>
@@ -4487,7 +4512,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7">
         <f t="shared" si="7"/>
-        <v>1862.1397539277164</v>
+        <v>1235.4453442552158</v>
       </c>
       <c r="F75" s="7">
         <v>297</v>
@@ -4504,19 +4529,19 @@
       <c r="J75" s="6"/>
       <c r="K75" s="2">
         <f t="shared" si="8"/>
-        <v>6449.3747124571864</v>
+        <v>5130.3672548865479</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="9"/>
-        <v>6491.1423694820669</v>
+        <v>5177.9247687964644</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" si="10"/>
-        <v>6532.7597987817226</v>
+        <v>5173.1114034421225</v>
       </c>
       <c r="N75" s="2">
         <f t="shared" si="11"/>
-        <v>6574.2795078554327</v>
+        <v>5220.6622481809318</v>
       </c>
       <c r="Q75" s="4">
         <v>6449.3754879999997</v>
@@ -4541,7 +4566,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7">
         <f t="shared" si="7"/>
-        <v>1908.8575518147977</v>
+        <v>1282.1631421422971</v>
       </c>
       <c r="F76" s="7">
         <v>301</v>
@@ -4558,19 +4583,19 @@
       <c r="J76" s="6"/>
       <c r="K76" s="2">
         <f t="shared" si="8"/>
-        <v>6617.2240640300843</v>
+        <v>5298.2166064594458</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="9"/>
-        <v>6659.5205166790493</v>
+        <v>5346.3029159934467</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" si="10"/>
-        <v>6701.6666939672514</v>
+        <v>5342.0182986276513</v>
       </c>
       <c r="N76" s="2">
         <f t="shared" si="11"/>
-        <v>6743.7151036295954</v>
+        <v>5390.0978439550945</v>
       </c>
       <c r="Q76" s="4">
         <v>6617.2246089999999</v>
@@ -4595,7 +4620,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7">
         <f t="shared" si="7"/>
-        <v>1956.1325162021899</v>
+        <v>1329.4381065296893</v>
       </c>
       <c r="F77" s="7">
         <v>305</v>
@@ -4612,19 +4637,19 @@
       <c r="J77" s="6"/>
       <c r="K77" s="2">
         <f t="shared" si="8"/>
-        <v>6787.1883132266576</v>
+        <v>5468.180855656019</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="9"/>
-        <v>6830.0133723635854</v>
+        <v>5516.7957716779829</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" si="10"/>
-        <v>6872.6881094351866</v>
+        <v>5513.0397140955865</v>
       </c>
       <c r="N77" s="2">
         <f t="shared" si="11"/>
-        <v>6915.2650324043798</v>
+        <v>5561.6477727298789</v>
       </c>
       <c r="Q77" s="4">
         <v>6787.1889650000003</v>
@@ -4649,7 +4674,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7">
         <f t="shared" si="7"/>
-        <v>2003.9642770685177</v>
+        <v>1377.2698673960172</v>
       </c>
       <c r="F78" s="7">
         <v>309</v>
@@ -4666,19 +4691,19 @@
       <c r="J78" s="6"/>
       <c r="K78" s="2">
         <f t="shared" si="8"/>
-        <v>6959.2667090579043</v>
+        <v>5640.2592514872658</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="9"/>
-        <v>7002.6201892252448</v>
+        <v>5689.4025885396422</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" si="10"/>
-        <v>7045.8233015237347</v>
+        <v>5686.1749061841347</v>
       </c>
       <c r="N78" s="2">
         <f t="shared" si="11"/>
-        <v>7088.9285541370355</v>
+        <v>5735.3112944625345</v>
       </c>
       <c r="Q78" s="4">
         <v>6959.267578</v>
@@ -4703,7 +4728,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7">
         <f t="shared" si="7"/>
-        <v>2052.3524714858331</v>
+        <v>1425.6580618133328</v>
       </c>
       <c r="F79" s="7">
         <v>313</v>
@@ -4720,19 +4745,19 @@
       <c r="J79" s="6"/>
       <c r="K79" s="2">
         <f t="shared" si="8"/>
-        <v>7133.4585150708581</v>
+        <v>5814.4510575002196</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="9"/>
-        <v>7177.3402343719144</v>
+        <v>5864.1226336863119</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="10"/>
-        <v>7221.0715408730339</v>
+        <v>5861.4231455334339</v>
       </c>
       <c r="N79" s="2">
         <f t="shared" si="11"/>
-        <v>7264.7049429716662</v>
+        <v>5911.0876832971653</v>
       </c>
       <c r="Q79" s="4">
         <v>7133.4594729999999</v>
@@ -4757,7 +4782,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7">
         <f t="shared" si="7"/>
-        <v>2101.2967433958324</v>
+        <v>1474.6023337233319</v>
       </c>
       <c r="F80" s="7">
         <v>317</v>
@@ -4774,19 +4799,19 @@
       <c r="J80" s="6"/>
       <c r="K80" s="2">
         <f t="shared" si="8"/>
-        <v>7309.7630088856231</v>
+        <v>5990.7555513149846</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="9"/>
-        <v>7354.1727888720416</v>
+        <v>6040.955188186439</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="10"/>
-        <v>7398.4321119725255</v>
+        <v>6038.7837166329255</v>
       </c>
       <c r="N80" s="2">
         <f t="shared" si="11"/>
-        <v>7442.5934867916649</v>
+        <v>6088.9762271171639</v>
       </c>
       <c r="Q80" s="4">
         <v>7309.7641599999997</v>
@@ -4811,7 +4836,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7">
         <f t="shared" si="7"/>
-        <v>2150.7967433958324</v>
+        <v>1524.1023337233319</v>
       </c>
       <c r="F81" s="7">
         <v>321</v>
@@ -4828,19 +4853,19 @@
       <c r="J81" s="6"/>
       <c r="K81" s="2">
         <f t="shared" si="8"/>
-        <v>7488.1794817527916</v>
+        <v>6169.1720241821531</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="9"/>
-        <v>7533.1171473169679</v>
+        <v>6219.8995466313654</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="10"/>
-        <v>7577.9043127281366</v>
+        <v>6218.2559173885365</v>
       </c>
       <c r="N81" s="2">
         <f t="shared" si="11"/>
-        <v>7622.5934867916649</v>
+        <v>6268.9762271171639</v>
       </c>
       <c r="Q81" s="4">
         <v>7488.1806640000004</v>
@@ -4865,7 +4890,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="7">
         <f t="shared" si="7"/>
-        <v>2200.8521285339698</v>
+        <v>1574.1577188614692</v>
       </c>
       <c r="F82" s="7">
         <v>325</v>
@@ -4882,19 +4907,19 @@
       <c r="J82" s="6"/>
       <c r="K82" s="2">
         <f t="shared" si="8"/>
-        <v>7668.7072381301114</v>
+        <v>6349.6997805594729</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="9"/>
-        <v>7714.172617402236</v>
+        <v>6400.9550167166335</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="10"/>
-        <v>7759.4874540481615</v>
+        <v>6399.8390587085614</v>
       </c>
       <c r="N82" s="2">
         <f t="shared" si="11"/>
-        <v>7804.7042570679396</v>
+        <v>6451.0869973934387</v>
       </c>
       <c r="Q82" s="4">
         <v>7668.7084960000002</v>
@@ -4919,7 +4944,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7">
         <f t="shared" si="7"/>
-        <v>2251.462562113114</v>
+        <v>1624.7681524406134</v>
       </c>
       <c r="F83" s="7">
         <v>329</v>
@@ -4936,19 +4961,19 @@
       <c r="J83" s="6"/>
       <c r="K83" s="2">
         <f t="shared" si="8"/>
-        <v>7851.3455952773284</v>
+        <v>6532.3381377066898</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="9"/>
-        <v>7897.3385195268211</v>
+        <v>6584.1209188412186</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="10"/>
-        <v>7943.1808594468221</v>
+        <v>6583.532464107222</v>
       </c>
       <c r="N83" s="2">
         <f t="shared" si="11"/>
-        <v>7988.925124226228</v>
+        <v>6635.3078645517271</v>
       </c>
       <c r="Q83" s="4">
         <v>7851.3466799999997</v>
@@ -4973,7 +4998,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7">
         <f t="shared" si="7"/>
-        <v>2302.6277135030259</v>
+        <v>1675.9333038305251</v>
       </c>
       <c r="F84" s="7">
         <v>333</v>
@@ -4990,19 +5015,19 @@
       <c r="J84" s="6"/>
       <c r="K84" s="2">
         <f t="shared" si="8"/>
-        <v>8036.0938828682229</v>
+        <v>6717.0864252975844</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="9"/>
-        <v>8082.6141864093179</v>
+        <v>6769.3965857237154</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" si="10"/>
-        <v>8128.9838646645449</v>
+        <v>6769.3354693249448</v>
       </c>
       <c r="N84" s="2">
         <f t="shared" si="11"/>
-        <v>8175.2554270060518</v>
+        <v>6821.6381673315509</v>
       </c>
       <c r="Q84" s="4">
         <v>8036.0947269999997</v>
@@ -5027,7 +5052,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7">
         <f t="shared" si="7"/>
-        <v>2354.347257960319</v>
+        <v>1727.652848287818</v>
       </c>
       <c r="F85" s="7">
         <v>337</v>
@@ -5044,19 +5069,19 @@
       <c r="J85" s="6"/>
       <c r="K85" s="2">
         <f t="shared" si="8"/>
-        <v>8222.9514426189089</v>
+        <v>6903.9439850482704</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="9"/>
-        <v>8269.9989627201685</v>
+        <v>6956.781362034566</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" si="10"/>
-        <v>8316.8958173040664</v>
+        <v>6957.2474219644664</v>
       </c>
       <c r="N85" s="2">
         <f t="shared" si="11"/>
-        <v>8363.6945159206371</v>
+        <v>7010.077256246137</v>
       </c>
       <c r="Q85" s="4">
         <v>8222.9521480000003</v>
@@ -5081,7 +5106,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7">
         <f t="shared" si="7"/>
-        <v>2406.6208764558146</v>
+        <v>1779.9264667833136</v>
       </c>
       <c r="F86" s="7">
         <v>341</v>
@@ -5098,19 +5123,19 @@
       <c r="J86" s="6"/>
       <c r="K86" s="2">
         <f t="shared" si="8"/>
-        <v>8411.9176279315288</v>
+        <v>7092.9101703608894</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="9"/>
-        <v>8459.4922047290747</v>
+        <v>7146.2746040434731</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="10"/>
-        <v>8506.9160764815188</v>
+        <v>7147.2676811419187</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="11"/>
-        <v>8554.2417529116283</v>
+        <v>7200.6244932371283</v>
       </c>
       <c r="Q86" s="4">
         <v>8411.9179690000001</v>
@@ -5135,7 +5160,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7">
         <f t="shared" si="7"/>
-        <v>2459.4482555089035</v>
+        <v>1832.7538458364024</v>
       </c>
       <c r="F87" s="7">
         <v>345</v>
@@ -5152,19 +5177,19 @@
       <c r="J87" s="6"/>
       <c r="K87" s="2">
         <f t="shared" si="8"/>
-        <v>8602.9918035525352</v>
+        <v>7283.9843459818958</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="9"/>
-        <v>8651.0932799668135</v>
+        <v>7337.875679281211</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" si="10"/>
-        <v>8699.0440124917168</v>
+        <v>7339.3956171521158</v>
       </c>
       <c r="N87" s="2">
         <f t="shared" si="11"/>
-        <v>8746.8965110178051</v>
+        <v>7393.279251343306</v>
       </c>
       <c r="Q87" s="4">
         <v>8602.9921880000002</v>
@@ -5189,7 +5214,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7">
         <f t="shared" si="7"/>
-        <v>2512.8290870285505</v>
+        <v>1886.1346773560492</v>
       </c>
       <c r="F88" s="7">
         <v>349</v>
@@ -5206,19 +5231,19 @@
       <c r="J88" s="6"/>
       <c r="K88" s="2">
         <f t="shared" si="8"/>
-        <v>8796.1733452448043</v>
+        <v>7477.1658876741649</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="9"/>
-        <v>8844.8015669006836</v>
+        <v>7531.5839662150811</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="10"/>
-        <v>8893.2790064869114</v>
+        <v>7533.6306111473114</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="11"/>
-        <v>8941.6581740570982</v>
+        <v>7588.0409143826</v>
       </c>
       <c r="Q88" s="4">
         <v>8796.1738280000009</v>
@@ -5243,7 +5268,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7">
         <f t="shared" si="7"/>
-        <v>2566.763068160607</v>
+        <v>1940.0686584881059</v>
       </c>
       <c r="F89" s="7">
         <v>353</v>
@@ -5260,19 +5285,19 @@
       <c r="J89" s="6"/>
       <c r="K89" s="2">
         <f t="shared" si="8"/>
-        <v>8991.46163947286</v>
+        <v>7672.4541819022206</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="9"/>
-        <v>9040.6164546229102</v>
+        <v>7727.3988539373076</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" si="10"/>
-        <v>9089.6204501683278</v>
+        <v>7729.9720548287278</v>
       </c>
       <c r="N89" s="2">
         <f t="shared" si="11"/>
-        <v>9138.5261363212121</v>
+        <v>7784.908876646713</v>
       </c>
       <c r="Q89" s="4">
         <v>8991.4619139999995</v>
@@ -5297,7 +5322,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7">
         <f t="shared" si="7"/>
-        <v>2621.2499011411119</v>
+        <v>1994.5554914686111</v>
       </c>
       <c r="F90" s="7">
         <v>357</v>
@@ -5314,19 +5339,19 @@
       <c r="J90" s="6"/>
       <c r="K90" s="2">
         <f t="shared" si="8"/>
-        <v>9188.8560831005507</v>
+        <v>7869.8486255299122</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="9"/>
-        <v>9238.5373425513353</v>
+        <v>7925.3197418657319</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" si="10"/>
-        <v>9288.067745489825</v>
+        <v>7928.4193501502241</v>
       </c>
       <c r="N90" s="2">
         <f t="shared" si="11"/>
-        <v>9337.4998022822219</v>
+        <v>7983.8825426077228</v>
       </c>
       <c r="Q90" s="4">
         <v>9188.8564449999994</v>
@@ -5351,7 +5376,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7">
         <f t="shared" si="7"/>
-        <v>2676.2892931552815</v>
+        <v>2049.5948834827805</v>
       </c>
       <c r="F91" s="7">
         <v>361</v>
@@ -5368,19 +5393,19 @@
       <c r="J91" s="6"/>
       <c r="K91" s="2">
         <f t="shared" si="8"/>
-        <v>9388.3560831005507</v>
+        <v>8069.3486255299122</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="9"/>
-        <v>9438.563640141776</v>
+        <v>8125.3460394561725</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" si="10"/>
-        <v>9488.620304373082</v>
+        <v>8128.971909033482</v>
       </c>
       <c r="N91" s="2">
         <f t="shared" si="11"/>
-        <v>9538.5785863105611</v>
+        <v>8184.961326636062</v>
       </c>
       <c r="Q91" s="4">
         <v>9388.3564449999994</v>
@@ -5405,7 +5430,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7">
         <f t="shared" si="7"/>
-        <v>2731.8809562019069</v>
+        <v>2105.1865465294059</v>
       </c>
       <c r="F92" s="7">
         <v>365</v>
@@ -5422,19 +5447,19 @@
       <c r="J92" s="6"/>
       <c r="K92" s="2">
         <f t="shared" si="8"/>
-        <v>9589.9610562750931</v>
+        <v>8270.9535987044546</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="9"/>
-        <v>9640.6947666114847</v>
+        <v>8327.4771659258822</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" si="10"/>
-        <v>9691.2775484337508</v>
+        <v>8331.6291530941508</v>
       </c>
       <c r="N92" s="2">
         <f t="shared" si="11"/>
-        <v>9741.7619124038119</v>
+        <v>8388.1446527293119</v>
       </c>
       <c r="Q92" s="4">
         <v>9589.9609380000002</v>
@@ -5459,7 +5484,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7">
         <f t="shared" si="7"/>
-        <v>2788.0246069628997</v>
+        <v>2161.3301972903987</v>
       </c>
       <c r="F93" s="7">
         <v>369</v>
@@ -5476,19 +5501,19 @@
       <c r="J93" s="6"/>
       <c r="K93" s="2">
         <f t="shared" si="8"/>
-        <v>9793.6704289873924</v>
+        <v>8474.6629714167539</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="9"/>
-        <v>9844.9301506731554</v>
+        <v>8531.7125499875528</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" si="10"/>
-        <v>9896.0389087180083</v>
+        <v>8536.3905133784083</v>
       </c>
       <c r="N93" s="2">
         <f t="shared" si="11"/>
-        <v>9947.0492139257985</v>
+        <v>8593.4319542512985</v>
       </c>
       <c r="Q93" s="4">
         <v>9793.6699219999991</v>
@@ -5513,7 +5538,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7">
         <f t="shared" si="7"/>
-        <v>2844.7199666777324</v>
+        <v>2218.0255570052313</v>
       </c>
       <c r="F94" s="7">
         <v>373</v>
@@ -5530,19 +5555,19 @@
       <c r="J94" s="6"/>
       <c r="K94" s="2">
         <f t="shared" si="8"/>
-        <v>9999.48363690322</v>
+        <v>8680.4761793325815</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="9"/>
-        <v>10051.269230278969</v>
+        <v>8738.0516295933667</v>
       </c>
       <c r="M94" s="2">
         <f t="shared" si="10"/>
-        <v>10102.903825449046</v>
+        <v>8743.255430109446</v>
       </c>
       <c r="N94" s="2">
         <f t="shared" si="11"/>
-        <v>10154.439933355465</v>
+        <v>8800.8226736809647</v>
       </c>
       <c r="Q94" s="4">
         <v>9999.4833980000003</v>
@@ -5567,7 +5592,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7">
         <f t="shared" si="7"/>
-        <v>2901.9667610225415</v>
+        <v>2275.2723513500405</v>
       </c>
       <c r="F95" s="7">
         <v>377</v>
@@ -5584,19 +5609,19 @@
       <c r="J95" s="6"/>
       <c r="K95" s="2">
         <f t="shared" si="8"/>
-        <v>10207.400124742167</v>
+        <v>8888.392667171529</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="9"/>
-        <v>10259.711452374193</v>
+        <v>8946.4938516885904</v>
       </c>
       <c r="M95" s="2">
         <f t="shared" si="10"/>
-        <v>10311.871747782978</v>
+        <v>8952.2233524433777</v>
       </c>
       <c r="N95" s="2">
         <f t="shared" si="11"/>
-        <v>10363.933522045083</v>
+        <v>9010.316262370583</v>
       </c>
       <c r="Q95" s="4">
         <v>10207.399414</v>
@@ -5621,7 +5646,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7">
         <f t="shared" si="7"/>
-        <v>2959.7647199936741</v>
+        <v>2333.0703103211731</v>
       </c>
       <c r="F96" s="7">
         <v>381</v>
@@ -5638,19 +5663,19 @@
       <c r="J96" s="6"/>
       <c r="K96" s="2">
         <f t="shared" si="8"/>
-        <v>10417.41934603811</v>
+        <v>9098.4118884674717</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="9"/>
-        <v>10470.256272659884</v>
+        <v>9157.0386719742819</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" si="10"/>
-        <v>10522.942133573759</v>
+        <v>9163.2937382341588</v>
       </c>
       <c r="N96" s="2">
         <f t="shared" si="11"/>
-        <v>10575.529439987349</v>
+        <v>9221.9121803128492</v>
       </c>
       <c r="Q96" s="4">
         <v>10417.418944999999</v>
@@ -5675,7 +5700,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7">
         <f t="shared" si="7"/>
-        <v>3018.1135777954701</v>
+        <v>2391.419168122969</v>
       </c>
       <c r="F97" s="7">
         <v>385</v>
@@ -5692,19 +5717,19 @@
       <c r="J97" s="6"/>
       <c r="K97" s="2">
         <f t="shared" si="8"/>
-        <v>10629.540762908458</v>
+        <v>9310.5333053378199</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="9"/>
-        <v>10682.903155364273</v>
+        <v>9369.6855546786701</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" si="10"/>
-        <v>10736.114449146666</v>
+        <v>9376.4660538070657</v>
       </c>
       <c r="N97" s="2">
         <f t="shared" si="11"/>
-        <v>10789.227155590941</v>
+        <v>9435.609895916441</v>
       </c>
       <c r="Q97" s="4">
         <v>10629.540039</v>
@@ -5729,7 +5754,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="7">
         <f t="shared" si="7"/>
-        <v>3077.0130727320816</v>
+        <v>2450.3186630595806</v>
       </c>
       <c r="F98" s="7">
         <v>389</v>
@@ -5746,19 +5771,19 @@
       <c r="J98" s="6"/>
       <c r="K98" s="2">
         <f t="shared" si="8"/>
-        <v>10843.763845831774</v>
+        <v>9524.7563882611357</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="9"/>
-        <v>10897.651573022404</v>
+        <v>9584.4339723368012</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" si="10"/>
-        <v>10951.388169079952</v>
+        <v>9591.7397737403517</v>
       </c>
       <c r="N98" s="2">
         <f t="shared" si="11"/>
-        <v>11005.026145464164</v>
+        <v>9651.4088857896641</v>
       </c>
       <c r="Q98" s="4">
         <v>10843.762694999999</v>
@@ -5783,7 +5808,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7">
         <f t="shared" si="7"/>
-        <v>3136.4629471031476</v>
+        <v>2509.7685374306466</v>
       </c>
       <c r="F99" s="7">
         <v>393</v>
@@ -5800,19 +5825,19 @@
       <c r="J99" s="6"/>
       <c r="K99" s="2">
         <f t="shared" si="8"/>
-        <v>11060.088073433373</v>
+        <v>9741.0806158627347</v>
       </c>
       <c r="L99" s="2">
         <f t="shared" si="9"/>
-        <v>11114.501006263683</v>
+        <v>9801.2834055780804</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" si="10"/>
-        <v>11168.762775994304</v>
+        <v>9809.1143806547043</v>
       </c>
       <c r="N99" s="2">
         <f t="shared" si="11"/>
-        <v>11222.925894206297</v>
+        <v>9869.308634531797</v>
       </c>
       <c r="Q99" s="4">
         <v>11060.086914</v>
@@ -5837,7 +5862,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7">
         <f t="shared" si="7"/>
-        <v>3196.4629471031476</v>
+        <v>2569.7685374306466</v>
       </c>
       <c r="F100" s="7">
         <v>397</v>
@@ -5854,23 +5879,23 @@
       <c r="J100" s="6"/>
       <c r="K100" s="2">
         <f t="shared" si="8"/>
-        <v>11278.512932278545</v>
+        <v>9959.5054747079066</v>
       </c>
       <c r="L100" s="2">
         <f t="shared" si="9"/>
-        <v>11333.450943606944</v>
+        <v>10020.233342921341</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" si="10"/>
-        <v>11388.237760349743</v>
+        <v>10028.589365010143</v>
       </c>
       <c r="N100" s="2">
         <f t="shared" si="11"/>
-        <v>11442.925894206297</v>
+        <v>10089.308634531797</v>
       </c>
       <c r="O100" s="2">
         <f>SUM(K100:N100)</f>
-        <v>45443.127530441525</v>
+        <v>40097.636817171187</v>
       </c>
       <c r="Q100" s="4">
         <v>11278.511719</v>
@@ -5898,7 +5923,7 @@
       </c>
       <c r="D101" s="7">
         <f t="shared" si="7"/>
-        <v>3257.0128227242685</v>
+        <v>2630.3184130517675</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="7"/>
@@ -5915,7 +5940,7 @@
       </c>
       <c r="D102" s="7">
         <f t="shared" si="7"/>
-        <v>3318.1123276626304</v>
+        <v>2691.4179179901294</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -5927,7 +5952,7 @@
       </c>
       <c r="D103" s="7">
         <f t="shared" si="7"/>
-        <v>3379.7612192277224</v>
+        <v>2753.0668095552214</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -5939,11 +5964,11 @@
       </c>
       <c r="D104" s="7">
         <f t="shared" si="7"/>
-        <v>3441.959258254908</v>
+        <v>2815.264848582407</v>
       </c>
       <c r="S104" s="4">
         <f>O100-U100</f>
-        <v>2.5294415245298296E-3</v>
+        <v>-5345.4881838288129</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -5955,7 +5980,7 @@
       </c>
       <c r="D105" s="7">
         <f t="shared" si="7"/>
-        <v>3504.7062090208678</v>
+        <v>2878.0117993483668</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -5967,7 +5992,7 @@
       </c>
       <c r="D106" s="7">
         <f t="shared" si="7"/>
-        <v>3568.0018391618551</v>
+        <v>2941.307429489354</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -5979,7 +6004,7 @@
       </c>
       <c r="D107" s="7">
         <f t="shared" si="7"/>
-        <v>3631.8459195946439</v>
+        <v>3005.1515099221428</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -5991,7 +6016,7 @@
       </c>
       <c r="D108" s="7">
         <f t="shared" si="7"/>
-        <v>3696.2382244400569</v>
+        <v>3069.5438147675559</v>
       </c>
       <c r="O108" t="str">
         <f>IF(O100=D400,"Correcto","incorrecto")</f>
@@ -6007,7 +6032,7 @@
       </c>
       <c r="D109" s="7">
         <f t="shared" si="7"/>
-        <v>3761.1785309489674</v>
+        <v>3134.4841212764663</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -6019,7 +6044,7 @@
       </c>
       <c r="D110" s="7">
         <f t="shared" si="7"/>
-        <v>3826.666619430669</v>
+        <v>3199.972209758168</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -6031,7 +6056,7 @@
       </c>
       <c r="D111" s="7">
         <f t="shared" si="7"/>
-        <v>3892.7022731835218</v>
+        <v>3266.0078635110208</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -6043,7 +6068,7 @@
       </c>
       <c r="D112" s="7">
         <f t="shared" si="7"/>
-        <v>3959.2852784277802</v>
+        <v>3332.5908687552792</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6055,7 +6080,7 @@
       </c>
       <c r="D113" s="7">
         <f t="shared" si="7"/>
-        <v>4026.4154242405148</v>
+        <v>3399.7210145680137</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6067,7 +6092,7 @@
       </c>
       <c r="D114" s="7">
         <f t="shared" si="7"/>
-        <v>4094.0925024925459</v>
+        <v>3467.3980928200449</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6079,7 +6104,7 @@
       </c>
       <c r="D115" s="7">
         <f t="shared" si="7"/>
-        <v>4162.3163077873087</v>
+        <v>3535.6218981148086</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6091,7 +6116,7 @@
       </c>
       <c r="D116" s="7">
         <f t="shared" si="7"/>
-        <v>4231.0866374015777</v>
+        <v>3604.3922277290776</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6103,7 +6128,7 @@
       </c>
       <c r="D117" s="7">
         <f t="shared" si="7"/>
-        <v>4300.4032912279699</v>
+        <v>3673.7088815554694</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6115,7 +6140,7 @@
       </c>
       <c r="D118" s="7">
         <f t="shared" si="7"/>
-        <v>4370.2660717191702</v>
+        <v>3743.5716620466696</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6127,7 +6152,7 @@
       </c>
       <c r="D119" s="7">
         <f t="shared" si="7"/>
-        <v>4440.674783833806</v>
+        <v>3813.9803741613055</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6139,7 +6164,7 @@
       </c>
       <c r="D120" s="7">
         <f t="shared" si="7"/>
-        <v>4511.6292349839096</v>
+        <v>3884.934825311409</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6151,7 +6176,7 @@
       </c>
       <c r="D121" s="7">
         <f t="shared" si="7"/>
-        <v>4583.1292349839096</v>
+        <v>3956.434825311409</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6163,7 +6188,7 @@
       </c>
       <c r="D122" s="7">
         <f t="shared" si="7"/>
-        <v>4655.1745960010967</v>
+        <v>4028.4801863285961</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6175,7 +6200,7 @@
       </c>
       <c r="D123" s="7">
         <f t="shared" si="7"/>
-        <v>4727.7651325075058</v>
+        <v>4101.0707228350057</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6187,7 +6212,7 @@
       </c>
       <c r="D124" s="7">
         <f t="shared" si="7"/>
-        <v>4800.9006612331659</v>
+        <v>4174.2062515606658</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6199,7 +6224,7 @@
       </c>
       <c r="D125" s="7">
         <f t="shared" si="7"/>
-        <v>4874.581001120665</v>
+        <v>4247.8865914481648</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6211,7 +6236,7 @@
       </c>
       <c r="D126" s="7">
         <f t="shared" si="7"/>
-        <v>4948.805973280987</v>
+        <v>4322.1115636084869</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6223,7 +6248,7 @@
       </c>
       <c r="D127" s="7">
         <f t="shared" si="7"/>
-        <v>5023.5754009505717</v>
+        <v>4396.8809912780716</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6235,7 +6260,7 @@
       </c>
       <c r="D128" s="7">
         <f t="shared" si="7"/>
-        <v>5098.8891094495566</v>
+        <v>4472.1946997770565</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6247,7 +6272,7 @@
       </c>
       <c r="D129" s="7">
         <f t="shared" si="7"/>
-        <v>5174.746926141157</v>
+        <v>4548.0525164686569</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6259,7 +6284,7 @@
       </c>
       <c r="D130" s="7">
         <f t="shared" si="7"/>
-        <v>5251.148680392148</v>
+        <v>4624.4542707196479</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6271,7 +6296,7 @@
       </c>
       <c r="D131" s="7">
         <f t="shared" ref="D131:D194" si="12">D130+A131/2+SQRT(B131)</f>
-        <v>5328.0942035344078</v>
+        <v>4701.3997938619077</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6283,7 +6308,7 @@
       </c>
       <c r="D132" s="7">
         <f t="shared" si="12"/>
-        <v>5405.5833288274835</v>
+        <v>4778.8889191549833</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6295,7 +6320,7 @@
       </c>
       <c r="D133" s="7">
         <f t="shared" si="12"/>
-        <v>5483.6158914221542</v>
+        <v>4856.921481749654</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6307,7 +6332,7 @@
       </c>
       <c r="D134" s="7">
         <f t="shared" si="12"/>
-        <v>5562.1917283249441</v>
+        <v>4935.4973186524439</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6319,7 +6344,7 @@
       </c>
       <c r="D135" s="7">
         <f t="shared" si="12"/>
-        <v>5641.3106783635667</v>
+        <v>5014.6162686910666</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6331,7 +6356,7 @@
       </c>
       <c r="D136" s="7">
         <f t="shared" si="12"/>
-        <v>5720.9725821532575</v>
+        <v>5094.2781724807573</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6343,7 +6368,7 @@
       </c>
       <c r="D137" s="7">
         <f t="shared" si="12"/>
-        <v>5801.1772820639771</v>
+        <v>5174.482872391477</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6355,7 +6380,7 @@
       </c>
       <c r="D138" s="7">
         <f t="shared" si="12"/>
-        <v>5881.9246221884478</v>
+        <v>5255.2302125159476</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6367,7 +6392,7 @@
       </c>
       <c r="D139" s="7">
         <f t="shared" si="12"/>
-        <v>5963.2144483109996</v>
+        <v>5336.5200386384995</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6379,7 +6404,7 @@
       </c>
       <c r="D140" s="7">
         <f t="shared" si="12"/>
-        <v>6045.0466078771988</v>
+        <v>5418.3521982046987</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6391,7 +6416,7 @@
       </c>
       <c r="D141" s="7">
         <f t="shared" si="12"/>
-        <v>6127.4209499642366</v>
+        <v>5500.7265402917365</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6403,7 +6428,7 @@
       </c>
       <c r="D142" s="7">
         <f t="shared" si="12"/>
-        <v>6210.3373252520496</v>
+        <v>5583.6429155795495</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6415,7 +6440,7 @@
       </c>
       <c r="D143" s="7">
         <f t="shared" si="12"/>
-        <v>6293.7955859951508</v>
+        <v>5667.1011763226506</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6427,7 +6452,7 @@
       </c>
       <c r="D144" s="7">
         <f t="shared" si="12"/>
-        <v>6377.7955859951508</v>
+        <v>5751.1011763226506</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6439,7 +6464,7 @@
       </c>
       <c r="D145" s="7">
         <f t="shared" si="12"/>
-        <v>6462.3371805739434</v>
+        <v>5835.6427709014433</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6451,7 +6476,7 @@
       </c>
       <c r="D146" s="7">
         <f t="shared" si="12"/>
-        <v>6547.4202265475378</v>
+        <v>5920.7258168750377</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6463,7 +6488,7 @@
       </c>
       <c r="D147" s="7">
         <f t="shared" si="12"/>
-        <v>6633.0445822005204</v>
+        <v>6006.3501725280203</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6475,7 +6500,7 @@
       </c>
       <c r="D148" s="7">
         <f t="shared" si="12"/>
-        <v>6719.2101072611167</v>
+        <v>6092.5156975886166</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6487,7 +6512,7 @@
       </c>
       <c r="D149" s="7">
         <f t="shared" si="12"/>
-        <v>6805.9166628768508</v>
+        <v>6179.2222532043506</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6499,7 +6524,7 @@
       </c>
       <c r="D150" s="7">
         <f t="shared" si="12"/>
-        <v>6893.1641115907669</v>
+        <v>6266.4697019182668</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6511,7 +6536,7 @@
       </c>
       <c r="D151" s="7">
         <f t="shared" si="12"/>
-        <v>6980.9523173182115</v>
+        <v>6354.2579076457114</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6523,7 +6548,7 @@
       </c>
       <c r="D152" s="7">
         <f t="shared" si="12"/>
-        <v>7069.2811453241493</v>
+        <v>6442.5867356516492</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6535,7 +6560,7 @@
       </c>
       <c r="D153" s="7">
         <f t="shared" si="12"/>
-        <v>7158.1504622010025</v>
+        <v>6531.4560525285024</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6547,7 +6572,7 @@
       </c>
       <c r="D154" s="7">
         <f t="shared" si="12"/>
-        <v>7247.560135846993</v>
+        <v>6620.8657261744929</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6559,7 +6584,7 @@
       </c>
       <c r="D155" s="7">
         <f t="shared" si="12"/>
-        <v>7337.5100354449814</v>
+        <v>6710.8156257724813</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6571,7 +6596,7 @@
       </c>
       <c r="D156" s="7">
         <f t="shared" si="12"/>
-        <v>7428.0000314417784</v>
+        <v>6801.3056217692783</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6583,7 +6608,7 @@
       </c>
       <c r="D157" s="7">
         <f t="shared" si="12"/>
-        <v>7519.0299955279197</v>
+        <v>6892.3355858554196</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6595,7 +6620,7 @@
       </c>
       <c r="D158" s="7">
         <f t="shared" si="12"/>
-        <v>7610.5998006178961</v>
+        <v>6983.905390945396</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6607,7 +6632,7 @@
       </c>
       <c r="D159" s="7">
         <f t="shared" si="12"/>
-        <v>7702.7093208308142</v>
+        <v>7076.0149111583141</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6619,7 +6644,7 @@
       </c>
       <c r="D160" s="7">
         <f t="shared" si="12"/>
-        <v>7795.3584314714881</v>
+        <v>7168.664021798988</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6631,7 +6656,7 @@
       </c>
       <c r="D161" s="7">
         <f t="shared" si="12"/>
-        <v>7888.5470090119379</v>
+        <v>7261.8525993394378</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6643,7 +6668,7 @@
       </c>
       <c r="D162" s="7">
         <f t="shared" si="12"/>
-        <v>7982.2749310732961</v>
+        <v>7355.580521400796</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6655,7 +6680,7 @@
       </c>
       <c r="D163" s="7">
         <f t="shared" si="12"/>
-        <v>8076.5420764081</v>
+        <v>7449.8476667355999</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6667,7 +6692,7 @@
       </c>
       <c r="D164" s="7">
         <f t="shared" si="12"/>
-        <v>8171.3483248829652</v>
+        <v>7544.6539152104651</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6679,7 +6704,7 @@
       </c>
       <c r="D165" s="7">
         <f t="shared" si="12"/>
-        <v>8266.6935574616309</v>
+        <v>7639.9991477891299</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6691,7 +6716,7 @@
       </c>
       <c r="D166" s="7">
         <f t="shared" si="12"/>
-        <v>8362.5776561883558</v>
+        <v>7735.8832465158548</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6703,7 +6728,7 @@
       </c>
       <c r="D167" s="7">
         <f t="shared" si="12"/>
-        <v>8459.0005041716759</v>
+        <v>7832.3060944991748</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6715,7 +6740,7 @@
       </c>
       <c r="D168" s="7">
         <f t="shared" si="12"/>
-        <v>8555.9619855684923</v>
+        <v>7929.2675758959904</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6727,7 +6752,7 @@
       </c>
       <c r="D169" s="7">
         <f t="shared" si="12"/>
-        <v>8653.4619855684923</v>
+        <v>8026.7675758959904</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6739,7 +6764,7 @@
       </c>
       <c r="D170" s="7">
         <f t="shared" si="12"/>
-        <v>8751.5003903788984</v>
+        <v>8124.8059807063955</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6751,7 +6776,7 @@
       </c>
       <c r="D171" s="7">
         <f t="shared" si="12"/>
-        <v>8850.07708720952</v>
+        <v>8223.3826775370162</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6763,7 +6788,7 @@
       </c>
       <c r="D172" s="7">
         <f t="shared" si="12"/>
-        <v>8949.1919642581233</v>
+        <v>8322.4975545856196</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6775,7 +6800,7 @@
       </c>
       <c r="D173" s="7">
         <f t="shared" si="12"/>
-        <v>9048.8449106960888</v>
+        <v>8422.1505010235851</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6787,7 +6812,7 @@
       </c>
       <c r="D174" s="7">
         <f t="shared" si="12"/>
-        <v>9149.035816654361</v>
+        <v>8522.3414069818573</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6799,7 +6824,7 @@
       </c>
       <c r="D175" s="7">
         <f t="shared" si="12"/>
-        <v>9249.7645732096844</v>
+        <v>8623.0701635371806</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6811,7 +6836,7 @@
       </c>
       <c r="D176" s="7">
         <f t="shared" si="12"/>
-        <v>9351.0310723711063</v>
+        <v>8724.3366626986026</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6823,7 +6848,7 @@
       </c>
       <c r="D177" s="7">
         <f t="shared" si="12"/>
-        <v>9452.835207066757</v>
+        <v>8826.1407973942532</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6835,7 +6860,7 @@
       </c>
       <c r="D178" s="7">
         <f t="shared" si="12"/>
-        <v>9555.1768711308832</v>
+        <v>8928.4824614583795</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6847,7 +6872,7 @@
       </c>
       <c r="D179" s="7">
         <f t="shared" si="12"/>
-        <v>9658.0559592911432</v>
+        <v>9031.3615496186394</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6859,7 +6884,7 @@
       </c>
       <c r="D180" s="7">
         <f t="shared" si="12"/>
-        <v>9761.4723671561424</v>
+        <v>9134.7779574836386</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6871,7 +6896,7 @@
       </c>
       <c r="D181" s="7">
         <f t="shared" si="12"/>
-        <v>9865.4259912032157</v>
+        <v>9238.731581530712</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6883,7 +6908,7 @@
       </c>
       <c r="D182" s="7">
         <f t="shared" si="12"/>
-        <v>9969.9167287664477</v>
+        <v>9343.222319093944</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6895,7 +6920,7 @@
       </c>
       <c r="D183" s="7">
         <f t="shared" si="12"/>
-        <v>10074.944478024916</v>
+        <v>9448.2500683524122</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6907,7 +6932,7 @@
       </c>
       <c r="D184" s="7">
         <f t="shared" si="12"/>
-        <v>10180.509137991166</v>
+        <v>9553.8147283186627</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6919,7 +6944,7 @@
       </c>
       <c r="D185" s="7">
         <f t="shared" si="12"/>
-        <v>10286.610608499901</v>
+        <v>9659.9161988273972</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6931,7 +6956,7 @@
       </c>
       <c r="D186" s="7">
         <f t="shared" si="12"/>
-        <v>10393.248790196887</v>
+        <v>9766.5543805243833</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6943,7 +6968,7 @@
       </c>
       <c r="D187" s="7">
         <f t="shared" si="12"/>
-        <v>10500.423584528064</v>
+        <v>9873.7291748555599</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6955,7 +6980,7 @@
       </c>
       <c r="D188" s="7">
         <f t="shared" si="12"/>
-        <v>10608.134893728866</v>
+        <v>9981.440484056362</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6967,7 +6992,7 @@
       </c>
       <c r="D189" s="7">
         <f t="shared" si="12"/>
-        <v>10716.382620813733</v>
+        <v>10089.688211141229</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6979,7 +7004,7 @@
       </c>
       <c r="D190" s="7">
         <f t="shared" si="12"/>
-        <v>10825.166669565822</v>
+        <v>10198.472259893319</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6991,7 +7016,7 @@
       </c>
       <c r="D191" s="7">
         <f t="shared" si="12"/>
-        <v>10934.486944526907</v>
+        <v>10307.792534854403</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7003,7 +7028,7 @@
       </c>
       <c r="D192" s="7">
         <f t="shared" si="12"/>
-        <v>11044.343350987458</v>
+        <v>10417.648941314954</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7015,7 +7040,7 @@
       </c>
       <c r="D193" s="7">
         <f t="shared" si="12"/>
-        <v>11154.735794976907</v>
+        <v>10528.041385304403</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7027,7 +7052,7 @@
       </c>
       <c r="D194" s="7">
         <f t="shared" si="12"/>
-        <v>11265.66418325409</v>
+        <v>10638.969773581586</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7039,7 +7064,7 @@
       </c>
       <c r="D195" s="7">
         <f t="shared" ref="D195:D258" si="13">D194+A195/2+SQRT(B195)</f>
-        <v>11377.12842329786</v>
+        <v>10750.434013625356</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7051,7 +7076,7 @@
       </c>
       <c r="D196" s="7">
         <f t="shared" si="13"/>
-        <v>11489.12842329786</v>
+        <v>10862.434013625356</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7063,7 +7088,7 @@
       </c>
       <c r="D197" s="7">
         <f t="shared" si="13"/>
-        <v>11601.664092145478</v>
+        <v>10974.969682472974</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7075,7 +7100,7 @@
       </c>
       <c r="D198" s="7">
         <f t="shared" si="13"/>
-        <v>11714.735339424948</v>
+        <v>11088.040929752444</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7087,7 +7112,7 @@
       </c>
       <c r="D199" s="7">
         <f t="shared" si="13"/>
-        <v>11828.342075404613</v>
+        <v>11201.647665732109</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7099,7 +7124,7 @@
       </c>
       <c r="D200" s="7">
         <f t="shared" si="13"/>
-        <v>11942.484211028344</v>
+        <v>11315.789801355841</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7111,7 +7136,7 @@
       </c>
       <c r="D201" s="7">
         <f t="shared" si="13"/>
-        <v>12057.161657907101</v>
+        <v>11430.467248234598</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7123,7 +7148,7 @@
       </c>
       <c r="D202" s="7">
         <f t="shared" si="13"/>
-        <v>12172.374328310654</v>
+        <v>11545.67991863815</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7135,7 +7160,7 @@
       </c>
       <c r="D203" s="7">
         <f t="shared" si="13"/>
-        <v>12288.122135159429</v>
+        <v>11661.427725486925</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7147,7 +7172,7 @@
       </c>
       <c r="D204" s="7">
         <f t="shared" si="13"/>
-        <v>12404.404992016514</v>
+        <v>11777.710582344011</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7159,7 +7184,7 @@
       </c>
       <c r="D205" s="7">
         <f t="shared" si="13"/>
-        <v>12521.22281307979</v>
+        <v>11894.528403407287</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7171,7 +7196,7 @@
       </c>
       <c r="D206" s="7">
         <f t="shared" si="13"/>
-        <v>12638.575513174197</v>
+        <v>12011.881103501693</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7183,7 +7208,7 @@
       </c>
       <c r="D207" s="7">
         <f t="shared" si="13"/>
-        <v>12756.463007744136</v>
+        <v>12129.768598071632</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7195,7 +7220,7 @@
       </c>
       <c r="D208" s="7">
         <f t="shared" si="13"/>
-        <v>12874.885212845991</v>
+        <v>12248.190803173487</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7207,7 +7232,7 @@
       </c>
       <c r="D209" s="7">
         <f t="shared" si="13"/>
-        <v>12993.842045140793</v>
+        <v>12367.147635468289</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7219,7 +7244,7 @@
       </c>
       <c r="D210" s="7">
         <f t="shared" si="13"/>
-        <v>13113.333421886982</v>
+        <v>12486.639012214478</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7231,7 +7256,7 @@
       </c>
       <c r="D211" s="7">
         <f t="shared" si="13"/>
-        <v>13233.359260933315</v>
+        <v>12606.664851260812</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7243,7 +7268,7 @@
       </c>
       <c r="D212" s="7">
         <f t="shared" si="13"/>
-        <v>13353.919480711877</v>
+        <v>12727.225071039373</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7255,7 +7280,7 @@
       </c>
       <c r="D213" s="7">
         <f t="shared" si="13"/>
-        <v>13475.014000231204</v>
+        <v>12848.3195905587</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7267,7 +7292,7 @@
       </c>
       <c r="D214" s="7">
         <f t="shared" si="13"/>
-        <v>13596.642739069532</v>
+        <v>12969.948329397028</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7279,7 +7304,7 @@
       </c>
       <c r="D215" s="7">
         <f t="shared" si="13"/>
-        <v>13718.805617368147</v>
+        <v>13092.111207695643</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7291,7 +7316,7 @@
       </c>
       <c r="D216" s="7">
         <f t="shared" si="13"/>
-        <v>13841.502555824845</v>
+        <v>13214.808146152342</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7303,7 +7328,7 @@
       </c>
       <c r="D217" s="7">
         <f t="shared" si="13"/>
-        <v>13964.733475687501</v>
+        <v>13338.039066014997</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7315,7 +7340,7 @@
       </c>
       <c r="D218" s="7">
         <f t="shared" si="13"/>
-        <v>14088.498298747734</v>
+        <v>13461.80388907523</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7327,7 +7352,7 @@
       </c>
       <c r="D219" s="7">
         <f t="shared" si="13"/>
-        <v>14212.796947334684</v>
+        <v>13586.10253766218</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7339,7 +7364,7 @@
       </c>
       <c r="D220" s="7">
         <f t="shared" si="13"/>
-        <v>14337.629344308874</v>
+        <v>13710.934934636371</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7351,7 +7376,7 @@
       </c>
       <c r="D221" s="7">
         <f t="shared" si="13"/>
-        <v>14462.995413056193</v>
+        <v>13836.301003383689</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7363,7 +7388,7 @@
       </c>
       <c r="D222" s="7">
         <f t="shared" si="13"/>
-        <v>14588.895077481944</v>
+        <v>13962.20066780944</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7375,7 +7400,7 @@
       </c>
       <c r="D223" s="7">
         <f t="shared" si="13"/>
-        <v>14715.328262005012</v>
+        <v>14088.633852332508</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7387,7 +7412,7 @@
       </c>
       <c r="D224" s="7">
         <f t="shared" si="13"/>
-        <v>14842.294891552108</v>
+        <v>14215.600481879605</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7399,7 +7424,7 @@
       </c>
       <c r="D225" s="7">
         <f t="shared" si="13"/>
-        <v>14969.794891552108</v>
+        <v>14343.100481879605</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7411,7 +7436,7 @@
       </c>
       <c r="D226" s="7">
         <f t="shared" si="13"/>
-        <v>15097.828187930481</v>
+        <v>14471.133778257978</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7423,7 +7448,7 @@
       </c>
       <c r="D227" s="7">
         <f t="shared" si="13"/>
-        <v>15226.3947071038</v>
+        <v>14599.700297431296</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7435,7 +7460,7 @@
       </c>
       <c r="D228" s="7">
         <f t="shared" si="13"/>
-        <v>15355.494375974342</v>
+        <v>14728.799966301838</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7447,7 +7472,7 @@
       </c>
       <c r="D229" s="7">
         <f t="shared" si="13"/>
-        <v>15485.127121924763</v>
+        <v>14858.432712252259</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7459,7 +7484,7 @@
       </c>
       <c r="D230" s="7">
         <f t="shared" si="13"/>
-        <v>15615.292872812866</v>
+        <v>14988.598463140363</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7471,7 +7496,7 @@
       </c>
       <c r="D231" s="7">
         <f t="shared" si="13"/>
-        <v>15745.991556966437</v>
+        <v>15119.297147293933</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7483,7 +7508,7 @@
       </c>
       <c r="D232" s="7">
         <f t="shared" si="13"/>
-        <v>15877.223103178165</v>
+        <v>15250.528693505661</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7495,7 +7520,7 @@
       </c>
       <c r="D233" s="7">
         <f t="shared" si="13"/>
-        <v>16008.987440700639</v>
+        <v>15382.293031028135</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7507,7 +7532,7 @@
       </c>
       <c r="D234" s="7">
         <f t="shared" si="13"/>
-        <v>16141.284499241418</v>
+        <v>15514.590089568914</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7519,7 +7544,7 @@
       </c>
       <c r="D235" s="7">
         <f t="shared" si="13"/>
-        <v>16274.114208958174</v>
+        <v>15647.41979928567</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7531,7 +7556,7 @@
       </c>
       <c r="D236" s="7">
         <f t="shared" si="13"/>
-        <v>16407.476500453911</v>
+        <v>15780.782090781408</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7543,7 +7568,7 @@
       </c>
       <c r="D237" s="7">
         <f t="shared" si="13"/>
-        <v>16541.371304772252</v>
+        <v>15914.676895099748</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7555,7 +7580,7 @@
       </c>
       <c r="D238" s="7">
         <f t="shared" si="13"/>
-        <v>16675.798553392793</v>
+        <v>16049.104143720289</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7567,7 +7592,7 @@
       </c>
       <c r="D239" s="7">
         <f t="shared" si="13"/>
-        <v>16810.758178226533</v>
+        <v>16184.06376855403</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7579,7 +7604,7 @@
       </c>
       <c r="D240" s="7">
         <f t="shared" si="13"/>
-        <v>16946.250111611364</v>
+        <v>16319.55570193886</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7591,7 +7616,7 @@
       </c>
       <c r="D241" s="7">
         <f t="shared" si="13"/>
-        <v>17082.274286307624</v>
+        <v>16455.579876635118</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7603,7 +7628,7 @@
       </c>
       <c r="D242" s="7">
         <f t="shared" si="13"/>
-        <v>17218.830635493727</v>
+        <v>16592.136225821221</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7615,7 +7640,7 @@
       </c>
       <c r="D243" s="7">
         <f t="shared" si="13"/>
-        <v>17355.919092761847</v>
+        <v>16729.224683089342</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7627,7 +7652,7 @@
       </c>
       <c r="D244" s="7">
         <f t="shared" si="13"/>
-        <v>17493.539592113662</v>
+        <v>16866.845182441157</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7639,7 +7664,7 @@
       </c>
       <c r="D245" s="7">
         <f t="shared" si="13"/>
-        <v>17631.692067956163</v>
+        <v>17004.997658283657</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7651,7 +7676,7 @@
       </c>
       <c r="D246" s="7">
         <f t="shared" si="13"/>
-        <v>17770.376455097521</v>
+        <v>17143.682045425016</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7663,7 +7688,7 @@
       </c>
       <c r="D247" s="7">
         <f t="shared" si="13"/>
-        <v>17909.592688743021</v>
+        <v>17282.898279070516</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7675,7 +7700,7 @@
       </c>
       <c r="D248" s="7">
         <f t="shared" si="13"/>
-        <v>18049.340704491045</v>
+        <v>17422.64629481854</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7687,7 +7712,7 @@
       </c>
       <c r="D249" s="7">
         <f t="shared" si="13"/>
-        <v>18189.620438329104</v>
+        <v>17562.926028656599</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7699,7 +7724,7 @@
       </c>
       <c r="D250" s="7">
         <f t="shared" si="13"/>
-        <v>18330.431826629945</v>
+        <v>17703.73741695744</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7711,7 +7736,7 @@
       </c>
       <c r="D251" s="7">
         <f t="shared" si="13"/>
-        <v>18471.7748061477</v>
+        <v>17845.080396475194</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7723,7 +7748,7 @@
       </c>
       <c r="D252" s="7">
         <f t="shared" si="13"/>
-        <v>18613.649314014088</v>
+        <v>17986.954904341583</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7735,7 +7760,7 @@
       </c>
       <c r="D253" s="7">
         <f t="shared" si="13"/>
-        <v>18756.055287734674</v>
+        <v>18129.360878062169</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7747,7 +7772,7 @@
       </c>
       <c r="D254" s="7">
         <f t="shared" si="13"/>
-        <v>18898.992665185182</v>
+        <v>18272.298255512676</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7759,7 +7784,7 @@
       </c>
       <c r="D255" s="7">
         <f t="shared" si="13"/>
-        <v>19042.461384607854</v>
+        <v>18415.766974935348</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7771,7 +7796,7 @@
       </c>
       <c r="D256" s="7">
         <f t="shared" si="13"/>
-        <v>19186.461384607854</v>
+        <v>18559.766974935348</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7783,7 +7808,7 @@
       </c>
       <c r="D257" s="7">
         <f t="shared" si="13"/>
-        <v>19330.992604149735</v>
+        <v>18704.298194477229</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7795,7 +7820,7 @@
       </c>
       <c r="D258" s="7">
         <f t="shared" si="13"/>
-        <v>19476.054982553942</v>
+        <v>18849.360572881436</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7807,7 +7832,7 @@
       </c>
       <c r="D259" s="7">
         <f t="shared" ref="D259:D322" si="14">D258+A259/2+SQRT(B259)</f>
-        <v>19621.648459493372</v>
+        <v>18994.954049820866</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7819,7 +7844,7 @@
       </c>
       <c r="D260" s="7">
         <f t="shared" si="14"/>
-        <v>19767.77297498997</v>
+        <v>19141.078565317464</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7831,7 +7856,7 @@
       </c>
       <c r="D261" s="7">
         <f t="shared" si="14"/>
-        <v>19914.428469411374</v>
+        <v>19287.734059738868</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7843,7 +7868,7 @@
       </c>
       <c r="D262" s="7">
         <f t="shared" si="14"/>
-        <v>20061.614883467613</v>
+        <v>19434.920473795108</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7855,7 +7880,7 @@
       </c>
       <c r="D263" s="7">
         <f t="shared" si="14"/>
-        <v>20209.332158207839</v>
+        <v>19582.637748535333</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7867,7 +7892,7 @@
       </c>
       <c r="D264" s="7">
         <f t="shared" si="14"/>
-        <v>20357.580235017111</v>
+        <v>19730.885825344605</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7879,7 +7904,7 @@
       </c>
       <c r="D265" s="7">
         <f t="shared" si="14"/>
-        <v>20506.359055613211</v>
+        <v>19879.664645940706</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7891,7 +7916,7 @@
       </c>
       <c r="D266" s="7">
         <f t="shared" si="14"/>
-        <v>20655.668562043513</v>
+        <v>20028.974152371007</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7903,7 +7928,7 @@
       </c>
       <c r="D267" s="7">
         <f t="shared" si="14"/>
-        <v>20805.508696681882</v>
+        <v>20178.814287009376</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7915,7 +7940,7 @@
       </c>
       <c r="D268" s="7">
         <f t="shared" si="14"/>
-        <v>20955.879402225626</v>
+        <v>20329.184992553121</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7927,7 +7952,7 @@
       </c>
       <c r="D269" s="7">
         <f t="shared" si="14"/>
-        <v>21106.780621692484</v>
+        <v>20480.086212019978</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7939,7 +7964,7 @@
       </c>
       <c r="D270" s="7">
         <f t="shared" si="14"/>
-        <v>21258.212298417639</v>
+        <v>20631.517888745133</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7951,7 +7976,7 @@
       </c>
       <c r="D271" s="7">
         <f t="shared" si="14"/>
-        <v>21410.174376050792</v>
+        <v>20783.479966378287</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7963,7 +7988,7 @@
       </c>
       <c r="D272" s="7">
         <f t="shared" si="14"/>
-        <v>21562.666798553262</v>
+        <v>20935.972388880757</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7975,7 +8000,7 @@
       </c>
       <c r="D273" s="7">
         <f t="shared" si="14"/>
-        <v>21715.68951019512</v>
+        <v>21088.995100522614</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7987,7 +8012,7 @@
       </c>
       <c r="D274" s="7">
         <f t="shared" si="14"/>
-        <v>21869.242455552365</v>
+        <v>21242.548045879859</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7999,7 +8024,7 @@
       </c>
       <c r="D275" s="7">
         <f t="shared" si="14"/>
-        <v>22023.32557950414</v>
+        <v>21396.631169831635</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8011,7 +8036,7 @@
       </c>
       <c r="D276" s="7">
         <f t="shared" si="14"/>
-        <v>22177.938827229977</v>
+        <v>21551.244417557471</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8023,7 +8048,7 @@
       </c>
       <c r="D277" s="7">
         <f t="shared" si="14"/>
-        <v>22333.08214420707</v>
+        <v>21706.387734534565</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8035,7 +8060,7 @@
       </c>
       <c r="D278" s="7">
         <f t="shared" si="14"/>
-        <v>22488.755476207603</v>
+        <v>21862.061066535098</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8047,7 +8072,7 @@
       </c>
       <c r="D279" s="7">
         <f t="shared" si="14"/>
-        <v>22644.958769296092</v>
+        <v>22018.264359623587</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8059,7 +8084,7 @@
       </c>
       <c r="D280" s="7">
         <f t="shared" si="14"/>
-        <v>22801.691969826774</v>
+        <v>22174.997560154268</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8071,7 +8096,7 @@
       </c>
       <c r="D281" s="7">
         <f t="shared" si="14"/>
-        <v>22958.955024441013</v>
+        <v>22332.260614768507</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8083,7 +8108,7 @@
       </c>
       <c r="D282" s="7">
         <f t="shared" si="14"/>
-        <v>23116.747880064759</v>
+        <v>22490.053470392253</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8095,7 +8120,7 @@
       </c>
       <c r="D283" s="7">
         <f t="shared" si="14"/>
-        <v>23275.07048390602</v>
+        <v>22648.376074233514</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8107,7 +8132,7 @@
       </c>
       <c r="D284" s="7">
         <f t="shared" si="14"/>
-        <v>23433.922783452374</v>
+        <v>22807.228373779868</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8119,7 +8144,7 @@
       </c>
       <c r="D285" s="7">
         <f t="shared" si="14"/>
-        <v>23593.304726468508</v>
+        <v>22966.610316796003</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8131,7 +8156,7 @@
       </c>
       <c r="D286" s="7">
         <f t="shared" si="14"/>
-        <v>23753.216260993795</v>
+        <v>23126.521851321289</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8143,7 +8168,7 @@
       </c>
       <c r="D287" s="7">
         <f t="shared" si="14"/>
-        <v>23913.657335339893</v>
+        <v>23286.962925667387</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8155,7 +8180,7 @@
       </c>
       <c r="D288" s="7">
         <f t="shared" si="14"/>
-        <v>24074.627898088369</v>
+        <v>23447.933488415863</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8167,7 +8192,7 @@
       </c>
       <c r="D289" s="7">
         <f t="shared" si="14"/>
-        <v>24236.127898088369</v>
+        <v>23609.433488415863</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8179,7 +8204,7 @@
       </c>
       <c r="D290" s="7">
         <f t="shared" si="14"/>
-        <v>24398.157284454297</v>
+        <v>23771.462874781791</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8191,7 +8216,7 @@
       </c>
       <c r="D291" s="7">
         <f t="shared" si="14"/>
-        <v>24560.716006563529</v>
+        <v>23934.021596891023</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8203,7 +8228,7 @@
       </c>
       <c r="D292" s="7">
         <f t="shared" si="14"/>
-        <v>24723.804014054163</v>
+        <v>24097.109604381658</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8215,7 +8240,7 @@
       </c>
       <c r="D293" s="7">
         <f t="shared" si="14"/>
-        <v>24887.421256822789</v>
+        <v>24260.726847150283</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8227,7 +8252,7 @@
       </c>
       <c r="D294" s="7">
         <f t="shared" si="14"/>
-        <v>25051.56768502227</v>
+        <v>24424.873275349764</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8239,7 +8264,7 @@
       </c>
       <c r="D295" s="7">
         <f t="shared" si="14"/>
-        <v>25216.243249059589</v>
+        <v>24589.548839387084</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8251,7 +8276,7 @@
       </c>
       <c r="D296" s="7">
         <f t="shared" si="14"/>
-        <v>25381.447899593673</v>
+        <v>24754.753489921168</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8263,7 +8288,7 @@
       </c>
       <c r="D297" s="7">
         <f t="shared" si="14"/>
-        <v>25547.181587533287</v>
+        <v>24920.487177860781</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8275,7 +8300,7 @@
       </c>
       <c r="D298" s="7">
         <f t="shared" si="14"/>
-        <v>25713.444264034919</v>
+        <v>25086.749854362413</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8287,7 +8312,7 @@
       </c>
       <c r="D299" s="7">
         <f t="shared" si="14"/>
-        <v>25880.23588050071</v>
+        <v>25253.541470828204</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8299,7 +8324,7 @@
       </c>
       <c r="D300" s="7">
         <f t="shared" si="14"/>
-        <v>26047.556388576399</v>
+        <v>25420.861978903893</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8311,7 +8336,7 @@
       </c>
       <c r="D301" s="7">
         <f t="shared" si="14"/>
-        <v>26215.405740149297</v>
+        <v>25588.711330476792</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8323,7 +8348,7 @@
       </c>
       <c r="D302" s="7">
         <f t="shared" si="14"/>
-        <v>26383.783887346279</v>
+        <v>25757.089477673773</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8335,7 +8360,7 @@
       </c>
       <c r="D303" s="7">
         <f t="shared" si="14"/>
-        <v>26552.690782531809</v>
+        <v>25925.996372859303</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8347,7 +8372,7 @@
       </c>
       <c r="D304" s="7">
         <f t="shared" si="14"/>
-        <v>26722.126378305969</v>
+        <v>26095.431968633464</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8359,7 +8384,7 @@
       </c>
       <c r="D305" s="7">
         <f t="shared" si="14"/>
-        <v>26892.090627502541</v>
+        <v>26265.396217830035</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8371,7 +8396,7 @@
       </c>
       <c r="D306" s="7">
         <f t="shared" si="14"/>
-        <v>27062.583483187078</v>
+        <v>26435.889073514572</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8383,7 +8408,7 @@
       </c>
       <c r="D307" s="7">
         <f t="shared" si="14"/>
-        <v>27233.604898655012</v>
+        <v>26606.910488982507</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8395,7 +8420,7 @@
       </c>
       <c r="D308" s="7">
         <f t="shared" si="14"/>
-        <v>27405.154827429797</v>
+        <v>26778.460417757291</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8407,7 +8432,7 @@
       </c>
       <c r="D309" s="7">
         <f t="shared" si="14"/>
-        <v>27577.233223261042</v>
+        <v>26950.538813588537</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8419,7 +8444,7 @@
       </c>
       <c r="D310" s="7">
         <f t="shared" si="14"/>
-        <v>27749.840040122701</v>
+        <v>27123.145630450195</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8431,7 +8456,7 @@
       </c>
       <c r="D311" s="7">
         <f t="shared" si="14"/>
-        <v>27922.975232211251</v>
+        <v>27296.280822538745</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8443,7 +8468,7 @@
       </c>
       <c r="D312" s="7">
         <f t="shared" si="14"/>
-        <v>28096.638753943906</v>
+        <v>27469.9443442714</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8455,7 +8480,7 @@
       </c>
       <c r="D313" s="7">
         <f t="shared" si="14"/>
-        <v>28270.830559956859</v>
+        <v>27644.136150284354</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8467,7 +8492,7 @@
       </c>
       <c r="D314" s="7">
         <f t="shared" si="14"/>
-        <v>28445.55060510353</v>
+        <v>27818.856195431024</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8479,7 +8504,7 @@
       </c>
       <c r="D315" s="7">
         <f t="shared" si="14"/>
-        <v>28620.798844452827</v>
+        <v>27994.104434780322</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8491,7 +8516,7 @@
       </c>
       <c r="D316" s="7">
         <f t="shared" si="14"/>
-        <v>28796.575233287458</v>
+        <v>28169.880823614953</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8503,7 +8528,7 @@
       </c>
       <c r="D317" s="7">
         <f t="shared" si="14"/>
-        <v>28972.879727102223</v>
+        <v>28346.185317429718</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8515,7 +8540,7 @@
       </c>
       <c r="D318" s="7">
         <f t="shared" si="14"/>
-        <v>29149.712281602351</v>
+        <v>28523.017871929846</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8527,7 +8552,7 @@
       </c>
       <c r="D319" s="7">
         <f t="shared" si="14"/>
-        <v>29327.072852701844</v>
+        <v>28700.378443029338</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8539,7 +8564,7 @@
       </c>
       <c r="D320" s="7">
         <f t="shared" si="14"/>
-        <v>29504.961396521841</v>
+        <v>28878.266986849336</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8551,7 +8576,7 @@
       </c>
       <c r="D321" s="7">
         <f t="shared" si="14"/>
-        <v>29683.377869389009</v>
+        <v>29056.683459716503</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8563,7 +8588,7 @@
       </c>
       <c r="D322" s="7">
         <f t="shared" si="14"/>
-        <v>29862.322227833934</v>
+        <v>29235.627818161429</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8575,7 +8600,7 @@
       </c>
       <c r="D323" s="7">
         <f t="shared" ref="D323:D386" si="15">D322+A323/2+SQRT(B323)</f>
-        <v>30041.794428589546</v>
+        <v>29415.100018917041</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8587,7 +8612,7 @@
       </c>
       <c r="D324" s="7">
         <f t="shared" si="15"/>
-        <v>30221.794428589546</v>
+        <v>29595.100018917041</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -8599,7 +8624,7 @@
       </c>
       <c r="D325" s="7">
         <f t="shared" si="15"/>
-        <v>30402.322184966866</v>
+        <v>29775.627775294361</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -8611,7 +8636,7 @@
       </c>
       <c r="D326" s="7">
         <f t="shared" si="15"/>
-        <v>30583.377655052132</v>
+        <v>29956.683245379627</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -8623,7 +8648,7 @@
       </c>
       <c r="D327" s="7">
         <f t="shared" si="15"/>
-        <v>30764.960796372157</v>
+        <v>30138.266386699652</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -8635,7 +8660,7 @@
       </c>
       <c r="D328" s="7">
         <f t="shared" si="15"/>
-        <v>30947.071566648432</v>
+        <v>30320.377156975926</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -8647,7 +8672,7 @@
       </c>
       <c r="D329" s="7">
         <f t="shared" si="15"/>
-        <v>31129.70992379565</v>
+        <v>30503.015514123144</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8659,7 +8684,7 @@
       </c>
       <c r="D330" s="7">
         <f t="shared" si="15"/>
-        <v>31312.875825920233</v>
+        <v>30686.181416247728</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8671,7 +8696,7 @@
       </c>
       <c r="D331" s="7">
         <f t="shared" si="15"/>
-        <v>31496.569231318892</v>
+        <v>30869.874821646386</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8683,7 +8708,7 @@
       </c>
       <c r="D332" s="7">
         <f t="shared" si="15"/>
-        <v>31680.79009847718</v>
+        <v>31054.095688804675</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8695,7 +8720,7 @@
       </c>
       <c r="D333" s="7">
         <f t="shared" si="15"/>
-        <v>31865.538386068074</v>
+        <v>31238.843976395568</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8707,7 +8732,7 @@
       </c>
       <c r="D334" s="7">
         <f t="shared" si="15"/>
-        <v>32050.814052950573</v>
+        <v>31424.119643278067</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8719,7 +8744,7 @@
       </c>
       <c r="D335" s="7">
         <f t="shared" si="15"/>
-        <v>32236.617058168296</v>
+        <v>31609.922648495791</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8731,7 +8756,7 @@
       </c>
       <c r="D336" s="7">
         <f t="shared" si="15"/>
-        <v>32422.947360948121</v>
+        <v>31796.252951275615</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8743,7 +8768,7 @@
       </c>
       <c r="D337" s="7">
         <f t="shared" si="15"/>
-        <v>32609.804920698807</v>
+        <v>31983.110511026302</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8755,7 +8780,7 @@
       </c>
       <c r="D338" s="7">
         <f t="shared" si="15"/>
-        <v>32797.189697009657</v>
+        <v>32170.495287337151</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8767,7 +8792,7 @@
       </c>
       <c r="D339" s="7">
         <f t="shared" si="15"/>
-        <v>32985.101649649179</v>
+        <v>32358.407239976674</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8779,7 +8804,7 @@
       </c>
       <c r="D340" s="7">
         <f t="shared" si="15"/>
-        <v>33173.540738563766</v>
+        <v>32546.846328891261</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8791,7 +8816,7 @@
       </c>
       <c r="D341" s="7">
         <f t="shared" si="15"/>
-        <v>33362.506923876383</v>
+        <v>32735.812514203881</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8803,7 +8828,7 @@
       </c>
       <c r="D342" s="7">
         <f t="shared" si="15"/>
-        <v>33552.000165885293</v>
+        <v>32925.305756212787</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8815,7 +8840,7 @@
       </c>
       <c r="D343" s="7">
         <f t="shared" si="15"/>
-        <v>33742.020425062743</v>
+        <v>33115.326015390237</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8827,7 +8852,7 @@
       </c>
       <c r="D344" s="7">
         <f t="shared" si="15"/>
-        <v>33932.567662053734</v>
+        <v>33305.873252381229</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8839,7 +8864,7 @@
       </c>
       <c r="D345" s="7">
         <f t="shared" si="15"/>
-        <v>34123.641837674739</v>
+        <v>33496.947428002233</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8851,7 +8876,7 @@
       </c>
       <c r="D346" s="7">
         <f t="shared" si="15"/>
-        <v>34315.242912912479</v>
+        <v>33688.548503239974</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8863,7 +8888,7 @@
       </c>
       <c r="D347" s="7">
         <f t="shared" si="15"/>
-        <v>34507.370848922677</v>
+        <v>33880.676439250172</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8875,7 +8900,7 @@
       </c>
       <c r="D348" s="7">
         <f t="shared" si="15"/>
-        <v>34700.025607028852</v>
+        <v>34073.331197356347</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8887,7 +8912,7 @@
       </c>
       <c r="D349" s="7">
         <f t="shared" si="15"/>
-        <v>34893.207148721121</v>
+        <v>34266.512739048616</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8899,7 +8924,7 @@
       </c>
       <c r="D350" s="7">
         <f t="shared" si="15"/>
-        <v>35086.915435654992</v>
+        <v>34460.221025982486</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8911,7 +8936,7 @@
       </c>
       <c r="D351" s="7">
         <f t="shared" si="15"/>
-        <v>35281.150429650188</v>
+        <v>34654.456019977682</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8923,7 +8948,7 @@
       </c>
       <c r="D352" s="7">
         <f t="shared" si="15"/>
-        <v>35475.912092689483</v>
+        <v>34849.217683016977</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8935,7 +8960,7 @@
       </c>
       <c r="D353" s="7">
         <f t="shared" si="15"/>
-        <v>35671.200386917539</v>
+        <v>35044.505977245033</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8947,7 +8972,7 @@
       </c>
       <c r="D354" s="7">
         <f t="shared" si="15"/>
-        <v>35867.015274639765</v>
+        <v>35240.32086496726</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8959,7 +8984,7 @@
       </c>
       <c r="D355" s="7">
         <f t="shared" si="15"/>
-        <v>36063.356718321185</v>
+        <v>35436.66230864868</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8971,7 +8996,7 @@
       </c>
       <c r="D356" s="7">
         <f t="shared" si="15"/>
-        <v>36260.224680585299</v>
+        <v>35633.530270912794</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8983,7 +9008,7 @@
       </c>
       <c r="D357" s="7">
         <f t="shared" si="15"/>
-        <v>36457.619124212993</v>
+        <v>35830.924714540488</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8995,7 +9020,7 @@
       </c>
       <c r="D358" s="7">
         <f t="shared" si="15"/>
-        <v>36655.54001214142</v>
+        <v>36028.845602468915</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -9007,7 +9032,7 @@
       </c>
       <c r="D359" s="7">
         <f t="shared" si="15"/>
-        <v>36853.987307462914</v>
+        <v>36227.292897790408</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -9019,7 +9044,7 @@
       </c>
       <c r="D360" s="7">
         <f t="shared" si="15"/>
-        <v>37052.960973423927</v>
+        <v>36426.266563751422</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -9031,7 +9056,7 @@
       </c>
       <c r="D361" s="7">
         <f t="shared" si="15"/>
-        <v>37252.460973423927</v>
+        <v>36625.766563751422</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -9043,7 +9068,7 @@
       </c>
       <c r="D362" s="7">
         <f t="shared" si="15"/>
-        <v>37452.487271014368</v>
+        <v>36825.792861341863</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -9055,7 +9080,7 @@
       </c>
       <c r="D363" s="7">
         <f t="shared" si="15"/>
-        <v>37653.039829897629</v>
+        <v>37026.345420225123</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -9067,7 +9092,7 @@
       </c>
       <c r="D364" s="7">
         <f t="shared" si="15"/>
-        <v>37854.118613925966</v>
+        <v>37227.424204253461</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -9079,7 +9104,7 @@
       </c>
       <c r="D365" s="7">
         <f t="shared" si="15"/>
-        <v>38055.72358710051</v>
+        <v>37429.029177428005</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -9091,7 +9116,7 @@
       </c>
       <c r="D366" s="7">
         <f t="shared" si="15"/>
-        <v>38257.854713570217</v>
+        <v>37631.160303897712</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -9103,7 +9128,7 @@
       </c>
       <c r="D367" s="7">
         <f t="shared" si="15"/>
-        <v>38460.511957630886</v>
+        <v>37833.817547958381</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -9115,7 +9140,7 @@
       </c>
       <c r="D368" s="7">
         <f t="shared" si="15"/>
-        <v>38663.695283724141</v>
+        <v>38037.000874051635</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -9127,7 +9152,7 @@
       </c>
       <c r="D369" s="7">
         <f t="shared" si="15"/>
-        <v>38867.40465643644</v>
+        <v>38240.710246763934</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -9139,7 +9164,7 @@
       </c>
       <c r="D370" s="7">
         <f t="shared" si="15"/>
-        <v>39071.64004049811</v>
+        <v>38444.945630825605</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -9151,7 +9176,7 @@
       </c>
       <c r="D371" s="7">
         <f t="shared" si="15"/>
-        <v>39276.401400782372</v>
+        <v>38649.706991109866</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -9163,7 +9188,7 @@
       </c>
       <c r="D372" s="7">
         <f t="shared" si="15"/>
-        <v>39481.68870230436</v>
+        <v>38854.994292631854</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -9175,7 +9200,7 @@
       </c>
       <c r="D373" s="7">
         <f t="shared" si="15"/>
-        <v>39687.501910220191</v>
+        <v>39060.807500547686</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -9187,7 +9212,7 @@
       </c>
       <c r="D374" s="7">
         <f t="shared" si="15"/>
-        <v>39893.840989826007</v>
+        <v>39267.146580153501</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -9199,7 +9224,7 @@
       </c>
       <c r="D375" s="7">
         <f t="shared" si="15"/>
-        <v>40100.705906557043</v>
+        <v>39474.011496884537</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -9211,7 +9236,7 @@
       </c>
       <c r="D376" s="7">
         <f t="shared" si="15"/>
-        <v>40308.096625986705</v>
+        <v>39681.4022163142</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9223,7 +9248,7 @@
       </c>
       <c r="D377" s="7">
         <f t="shared" si="15"/>
-        <v>40516.013113825655</v>
+        <v>39889.318704153149</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9235,7 +9260,7 @@
       </c>
       <c r="D378" s="7">
         <f t="shared" si="15"/>
-        <v>40724.45533592088</v>
+        <v>40097.760926248375</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -9247,7 +9272,7 @@
       </c>
       <c r="D379" s="7">
         <f t="shared" si="15"/>
-        <v>40933.423258254814</v>
+        <v>40306.728848582308</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -9259,7 +9284,7 @@
       </c>
       <c r="D380" s="7">
         <f t="shared" si="15"/>
-        <v>41142.916846944434</v>
+        <v>40516.222437271928</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -9271,7 +9296,7 @@
       </c>
       <c r="D381" s="7">
         <f t="shared" si="15"/>
-        <v>41352.936068240379</v>
+        <v>40726.241658567873</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -9283,7 +9308,7 @@
       </c>
       <c r="D382" s="7">
         <f t="shared" si="15"/>
-        <v>41563.480888526072</v>
+        <v>40936.786478853566</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -9295,7 +9320,7 @@
       </c>
       <c r="D383" s="7">
         <f t="shared" si="15"/>
-        <v>41774.551274316851</v>
+        <v>41147.856864644345</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -9307,7 +9332,7 @@
       </c>
       <c r="D384" s="7">
         <f t="shared" si="15"/>
-        <v>41986.147192259115</v>
+        <v>41359.45278258661</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -9319,7 +9344,7 @@
       </c>
       <c r="D385" s="7">
         <f t="shared" si="15"/>
-        <v>42198.268609129467</v>
+        <v>41571.574199456962</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9331,7 +9356,7 @@
       </c>
       <c r="D386" s="7">
         <f t="shared" si="15"/>
-        <v>42410.915491833854</v>
+        <v>41784.221082161348</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9343,7 +9368,7 @@
       </c>
       <c r="D387" s="7">
         <f t="shared" ref="D387:D401" si="16">D386+A387/2+SQRT(B387)</f>
-        <v>42624.087807406759</v>
+        <v>41997.393397734253</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9355,7 +9380,7 @@
       </c>
       <c r="D388" s="7">
         <f t="shared" si="16"/>
-        <v>42837.785523010352</v>
+        <v>42211.091113337847</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9367,7 +9392,7 @@
       </c>
       <c r="D389" s="7">
         <f t="shared" si="16"/>
-        <v>43052.008605933668</v>
+        <v>42425.314196261163</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9379,7 +9404,7 @@
       </c>
       <c r="D390" s="7">
         <f t="shared" si="16"/>
-        <v>43266.757023591803</v>
+        <v>42640.062613919297</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9391,7 +9416,7 @@
       </c>
       <c r="D391" s="7">
         <f t="shared" si="16"/>
-        <v>43482.030743525087</v>
+        <v>42855.336333852581</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9403,7 +9428,7 @@
       </c>
       <c r="D392" s="7">
         <f t="shared" si="16"/>
-        <v>43697.829733398314</v>
+        <v>43071.135323725808</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9415,7 +9440,7 @@
       </c>
       <c r="D393" s="7">
         <f t="shared" si="16"/>
-        <v>43914.153960999916</v>
+        <v>43287.459551327411</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9427,7 +9452,7 @@
       </c>
       <c r="D394" s="7">
         <f t="shared" si="16"/>
-        <v>44131.003394241197</v>
+        <v>43504.308984568692</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9439,7 +9464,7 @@
       </c>
       <c r="D395" s="7">
         <f t="shared" si="16"/>
-        <v>44348.37800115555</v>
+        <v>43721.683591483044</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9451,7 +9476,7 @@
       </c>
       <c r="D396" s="7">
         <f t="shared" si="16"/>
-        <v>44566.277749897679</v>
+        <v>43939.583340225174</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9463,7 +9488,7 @@
       </c>
       <c r="D397" s="7">
         <f t="shared" si="16"/>
-        <v>44784.702608742853</v>
+        <v>44158.008199070347</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9475,7 +9500,7 @@
       </c>
       <c r="D398" s="7">
         <f t="shared" si="16"/>
-        <v>45003.652546086116</v>
+        <v>44376.95813641361</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9487,7 +9512,7 @@
       </c>
       <c r="D399" s="7">
         <f t="shared" si="16"/>
-        <v>45223.127530441554</v>
+        <v>44596.433120769048</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -9499,21 +9524,21 @@
       </c>
       <c r="D400" s="7">
         <f t="shared" si="16"/>
-        <v>45443.127530441554</v>
+        <v>44816.433120769048</v>
       </c>
       <c r="F400" s="7">
         <f>D400-O100</f>
-        <v>0</v>
+        <v>4718.796303597861</v>
       </c>
     </row>
     <row r="401" spans="1:7">
       <c r="D401" s="7">
         <f t="shared" si="16"/>
-        <v>45443.127530441554</v>
+        <v>44816.433120769048</v>
       </c>
       <c r="G401" s="8">
         <f>D401-E402</f>
-        <v>-5.2815584494965151E-3</v>
+        <v>-626.69969123095507</v>
       </c>
     </row>
     <row r="402" spans="1:7">
